--- a/template/xlsx/diario.xlsx
+++ b/template/xlsx/diario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tecnika\Documents\Visual Code\Media_Django\template\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F52E3E8-AE21-47D1-A1C6-9ED03D49CFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECD1EB4-0FE8-4806-B08A-034FF9A21732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTROLE" sheetId="1" r:id="rId1"/>
@@ -198,9 +198,6 @@
     <t>ORCAMENTO</t>
   </si>
   <si>
-    <t>INDICE</t>
-  </si>
-  <si>
     <t>FONE: (55) 3512-6392</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>10.</t>
+  </si>
+  <si>
+    <t>ETAPAS</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -998,30 +998,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1062,19 +1038,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1130,7 +1093,7 @@
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1257,275 +1220,270 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -1609,7 +1567,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
+      <xdr:colOff>59839</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>760</xdr:rowOff>
     </xdr:to>
@@ -1956,8 +1914,8 @@
   </sheetPr>
   <dimension ref="A1:AK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:AD17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2035,39 +1993,39 @@
     </row>
     <row r="2" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="68" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="46" t="s">
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="145" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="48"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="55"/>
       <c r="AE2" s="29"/>
       <c r="AF2" s="29"/>
       <c r="AG2" s="32"/>
@@ -2078,37 +2036,37 @@
     </row>
     <row r="3" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="51"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="140" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="58"/>
       <c r="AE3" s="29"/>
       <c r="AF3" s="29"/>
       <c r="AG3" s="32"/>
@@ -2119,39 +2077,39 @@
     </row>
     <row r="4" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="74" t="s">
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="140" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="51"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="58"/>
       <c r="AE4" s="29"/>
       <c r="AF4" s="29"/>
       <c r="AG4" s="32"/>
@@ -2162,37 +2120,37 @@
     </row>
     <row r="5" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="80" t="s">
+      <c r="B5" s="136"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="77"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
+      <c r="U5" s="122"/>
+      <c r="V5" s="123"/>
+      <c r="W5" s="139"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="122"/>
+      <c r="AA5" s="122"/>
+      <c r="AB5" s="122"/>
+      <c r="AC5" s="122"/>
+      <c r="AD5" s="123"/>
       <c r="AE5" s="29"/>
       <c r="AF5" s="29"/>
       <c r="AG5" s="30"/>
@@ -2215,41 +2173,41 @@
     </row>
     <row r="7" spans="1:37" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="66" t="s">
+      <c r="C7" s="109"/>
+      <c r="D7" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="78" t="s">
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="63"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="78"/>
       <c r="AE7" s="29"/>
       <c r="AF7" s="29"/>
       <c r="AG7" s="31"/>
@@ -2260,41 +2218,41 @@
     </row>
     <row r="8" spans="1:37" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35"/>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="63"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="78"/>
       <c r="W8" s="4"/>
-      <c r="X8" s="67" t="s">
+      <c r="X8" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="63"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="78"/>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="67" t="s">
+      <c r="AB8" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="63"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="78"/>
       <c r="AE8" s="29"/>
       <c r="AF8" s="29"/>
       <c r="AG8" s="30"/>
@@ -2305,51 +2263,53 @@
     </row>
     <row r="9" spans="1:37" s="3" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35"/>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="138"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="137" t="s">
+      <c r="C9" s="88"/>
+      <c r="D9" s="71">
+        <v>0</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="F9" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="140"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="142" t="s">
+      <c r="G9" s="90"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="109"/>
-      <c r="K9" s="141" t="s">
+      <c r="J9" s="69"/>
+      <c r="K9" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="116" t="s">
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="141" t="s">
+      <c r="P9" s="69"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="109"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="110"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="110"/>
+      <c r="V9" s="70"/>
       <c r="W9" s="6"/>
-      <c r="X9" s="141" t="s">
+      <c r="X9" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="110"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="70"/>
       <c r="AA9" s="7"/>
-      <c r="AB9" s="141" t="s">
+      <c r="AB9" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AC9" s="109"/>
-      <c r="AD9" s="110"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="70"/>
       <c r="AE9" s="29"/>
       <c r="AF9" s="29"/>
       <c r="AG9" s="30"/>
@@ -2360,10 +2320,10 @@
     </row>
     <row r="10" spans="1:37" s="3" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="35"/>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="94"/>
+      <c r="C10" s="116"/>
       <c r="D10" s="26" t="s">
         <v>14</v>
       </c>
@@ -2376,39 +2336,39 @@
         <v>16</v>
       </c>
       <c r="I10" s="9"/>
-      <c r="J10" s="97" t="s">
+      <c r="J10" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="98"/>
-      <c r="L10" s="93" t="s">
+      <c r="K10" s="52"/>
+      <c r="L10" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="123"/>
-      <c r="N10" s="94"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="116"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="100" t="s">
+      <c r="P10" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="98"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="52"/>
       <c r="S10" s="40"/>
-      <c r="T10" s="100" t="s">
+      <c r="T10" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="101"/>
-      <c r="V10" s="98"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="52"/>
       <c r="W10" s="40"/>
-      <c r="X10" s="100" t="s">
+      <c r="X10" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="Y10" s="101"/>
-      <c r="Z10" s="98"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="52"/>
       <c r="AA10" s="40"/>
-      <c r="AB10" s="100" t="s">
+      <c r="AB10" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="AC10" s="101"/>
-      <c r="AD10" s="98"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="52"/>
       <c r="AE10" s="29"/>
       <c r="AF10" s="29"/>
       <c r="AG10" s="30"/>
@@ -2419,8 +2379,8 @@
     </row>
     <row r="11" spans="1:37" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="51"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="27" t="s">
         <v>23</v>
       </c>
@@ -2433,37 +2393,37 @@
         <v>16</v>
       </c>
       <c r="I11" s="11"/>
-      <c r="J11" s="127" t="s">
+      <c r="J11" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="63"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="51"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="58"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="139" t="s">
+      <c r="P11" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="63"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="78"/>
       <c r="S11" s="41"/>
-      <c r="T11" s="64" t="s">
+      <c r="T11" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="62"/>
-      <c r="V11" s="63"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="78"/>
       <c r="W11" s="41"/>
-      <c r="X11" s="64" t="s">
+      <c r="X11" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="63"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="78"/>
       <c r="AA11" s="41"/>
-      <c r="AB11" s="64" t="s">
+      <c r="AB11" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="AC11" s="62"/>
-      <c r="AD11" s="63"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="78"/>
       <c r="AE11" s="29"/>
       <c r="AF11" s="29"/>
       <c r="AG11" s="30"/>
@@ -2474,8 +2434,8 @@
     </row>
     <row r="12" spans="1:37" s="3" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="96"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="28" t="s">
         <v>28</v>
       </c>
@@ -2488,35 +2448,35 @@
         <v>16</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="153" t="s">
+      <c r="J12" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="110"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="96"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="120"/>
       <c r="O12" s="12"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="110"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="70"/>
       <c r="S12" s="42"/>
-      <c r="T12" s="108" t="s">
+      <c r="T12" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="U12" s="109"/>
-      <c r="V12" s="110"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="70"/>
       <c r="W12" s="42"/>
-      <c r="X12" s="108" t="s">
+      <c r="X12" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="Y12" s="109"/>
-      <c r="Z12" s="110"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="70"/>
       <c r="AA12" s="42"/>
-      <c r="AB12" s="108" t="s">
+      <c r="AB12" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="AC12" s="109"/>
-      <c r="AD12" s="110"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="70"/>
       <c r="AE12" s="29"/>
       <c r="AF12" s="29"/>
       <c r="AG12" s="30"/>
@@ -2527,37 +2487,37 @@
     </row>
     <row r="13" spans="1:37" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="101"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="101"/>
-      <c r="X13" s="101"/>
-      <c r="Y13" s="101"/>
-      <c r="Z13" s="101"/>
-      <c r="AA13" s="101"/>
-      <c r="AB13" s="101"/>
-      <c r="AC13" s="101"/>
-      <c r="AD13" s="98"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="52"/>
       <c r="AE13" s="29"/>
       <c r="AF13" s="29"/>
       <c r="AG13" s="30"/>
@@ -2568,35 +2528,35 @@
     </row>
     <row r="14" spans="1:37" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="63"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="77"/>
+      <c r="AA14" s="77"/>
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="78"/>
       <c r="AE14" s="29"/>
       <c r="AF14" s="29"/>
       <c r="AG14" s="30"/>
@@ -2607,35 +2567,35 @@
     </row>
     <row r="15" spans="1:37" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="63"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="77"/>
+      <c r="AA15" s="77"/>
+      <c r="AB15" s="77"/>
+      <c r="AC15" s="77"/>
+      <c r="AD15" s="78"/>
       <c r="AE15" s="29"/>
       <c r="AF15" s="29"/>
       <c r="AG15" s="30"/>
@@ -2646,35 +2606,35 @@
     </row>
     <row r="16" spans="1:37" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="63"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="77"/>
+      <c r="AB16" s="77"/>
+      <c r="AC16" s="77"/>
+      <c r="AD16" s="78"/>
       <c r="AE16" s="29"/>
       <c r="AF16" s="29"/>
       <c r="AG16" s="30"/>
@@ -2685,35 +2645,35 @@
     </row>
     <row r="17" spans="1:37" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="62"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="62"/>
-      <c r="AD17" s="63"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="77"/>
+      <c r="AA17" s="77"/>
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="78"/>
       <c r="AE17" s="29"/>
       <c r="AF17" s="29"/>
       <c r="AG17" s="30"/>
@@ -2724,35 +2684,35 @@
     </row>
     <row r="18" spans="1:37" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="62"/>
-      <c r="AD18" s="63"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="77"/>
+      <c r="Z18" s="77"/>
+      <c r="AA18" s="77"/>
+      <c r="AB18" s="77"/>
+      <c r="AC18" s="77"/>
+      <c r="AD18" s="78"/>
       <c r="AE18" s="29"/>
       <c r="AF18" s="29"/>
       <c r="AG18" s="30"/>
@@ -2763,35 +2723,35 @@
     </row>
     <row r="19" spans="1:37" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="34"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="109"/>
-      <c r="O19" s="109"/>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="109"/>
-      <c r="T19" s="109"/>
-      <c r="U19" s="109"/>
-      <c r="V19" s="109"/>
-      <c r="W19" s="109"/>
-      <c r="X19" s="109"/>
-      <c r="Y19" s="109"/>
-      <c r="Z19" s="109"/>
-      <c r="AA19" s="109"/>
-      <c r="AB19" s="109"/>
-      <c r="AC19" s="109"/>
-      <c r="AD19" s="110"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="69"/>
+      <c r="AB19" s="69"/>
+      <c r="AC19" s="69"/>
+      <c r="AD19" s="70"/>
       <c r="AE19" s="29"/>
       <c r="AF19" s="29"/>
       <c r="AG19" s="30"/>
@@ -2802,41 +2762,41 @@
     </row>
     <row r="20" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34"/>
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="115" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="101"/>
-      <c r="V20" s="101"/>
-      <c r="W20" s="101"/>
-      <c r="X20" s="101"/>
-      <c r="Y20" s="101"/>
-      <c r="Z20" s="101"/>
-      <c r="AA20" s="101"/>
-      <c r="AB20" s="98"/>
-      <c r="AC20" s="99" t="s">
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="AD20" s="94"/>
+      <c r="AD20" s="116"/>
       <c r="AE20" s="29"/>
       <c r="AF20" s="29"/>
       <c r="AG20" s="30"/>
@@ -2847,47 +2807,47 @@
     </row>
     <row r="21" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="61" t="s">
+      <c r="B21" s="139"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="61" t="s">
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="65" t="s">
+      <c r="P21" s="78"/>
+      <c r="Q21" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="61" t="s">
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="V21" s="63"/>
-      <c r="W21" s="61" t="s">
+      <c r="V21" s="78"/>
+      <c r="W21" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="63"/>
-      <c r="AA21" s="61" t="s">
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="AB21" s="63"/>
-      <c r="AC21" s="76"/>
-      <c r="AD21" s="77"/>
+      <c r="AB21" s="78"/>
+      <c r="AC21" s="122"/>
+      <c r="AD21" s="123"/>
       <c r="AE21" s="29"/>
       <c r="AF21" s="29"/>
       <c r="AG21" s="30"/>
@@ -2899,42 +2859,42 @@
     <row r="22" spans="1:37" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="37"/>
       <c r="B22" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="60"/>
-      <c r="AC22" s="87"/>
-      <c r="AD22" s="60"/>
+        <v>56</v>
+      </c>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="96"/>
+      <c r="AD22" s="48"/>
       <c r="AE22" s="29"/>
       <c r="AF22" s="29"/>
       <c r="AG22" s="30"/>
@@ -2946,42 +2906,42 @@
     <row r="23" spans="1:37" ht="13.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="37"/>
       <c r="B23" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="82"/>
-      <c r="W23" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="81"/>
-      <c r="AB23" s="82"/>
-      <c r="AC23" s="91"/>
-      <c r="AD23" s="57"/>
+        <v>57</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="94"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="100"/>
+      <c r="AD23" s="95"/>
       <c r="AE23" s="29"/>
       <c r="AF23" s="29"/>
       <c r="AG23" s="30"/>
@@ -2993,42 +2953,42 @@
     <row r="24" spans="1:37" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="37"/>
       <c r="B24" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="60"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="60"/>
-      <c r="AC24" s="87"/>
-      <c r="AD24" s="60"/>
+        <v>58</v>
+      </c>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="96"/>
+      <c r="AD24" s="48"/>
       <c r="AE24" s="29"/>
       <c r="AF24" s="29"/>
       <c r="AG24" s="30"/>
@@ -3037,45 +2997,45 @@
       <c r="AJ24" s="30"/>
       <c r="AK24" s="29"/>
     </row>
-    <row r="25" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" ht="13.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37"/>
-      <c r="B25" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="83"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="83"/>
-      <c r="AB25" s="84"/>
-      <c r="AC25" s="88"/>
-      <c r="AD25" s="54"/>
+      <c r="B25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="73"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="125"/>
+      <c r="AD25" s="61"/>
       <c r="AE25" s="29"/>
       <c r="AF25" s="29"/>
       <c r="AG25" s="30"/>
@@ -3084,45 +3044,45 @@
       <c r="AJ25" s="30"/>
       <c r="AK25" s="29"/>
     </row>
-    <row r="26" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="37"/>
       <c r="B26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="87"/>
-      <c r="AD26" s="60"/>
+        <v>60</v>
+      </c>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="96"/>
+      <c r="AD26" s="48"/>
       <c r="AE26" s="29"/>
       <c r="AF26" s="29"/>
       <c r="AG26" s="30"/>
@@ -3131,45 +3091,45 @@
       <c r="AJ26" s="30"/>
       <c r="AK26" s="29"/>
     </row>
-    <row r="27" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" ht="13.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37"/>
-      <c r="B27" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="81"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="81"/>
-      <c r="AB27" s="82"/>
-      <c r="AC27" s="91"/>
-      <c r="AD27" s="57"/>
+      <c r="B27" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="R27" s="94"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="94"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="61"/>
+      <c r="AC27" s="100"/>
+      <c r="AD27" s="95"/>
       <c r="AE27" s="29"/>
       <c r="AF27" s="29"/>
       <c r="AG27" s="30"/>
@@ -3178,45 +3138,45 @@
       <c r="AJ27" s="30"/>
       <c r="AK27" s="29"/>
     </row>
-    <row r="28" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="37"/>
       <c r="B28" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="60"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="60"/>
-      <c r="W28" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="60"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="60"/>
-      <c r="AC28" s="87"/>
-      <c r="AD28" s="60"/>
+        <v>62</v>
+      </c>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="49"/>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="96"/>
+      <c r="AD28" s="48"/>
       <c r="AE28" s="29"/>
       <c r="AF28" s="29"/>
       <c r="AG28" s="30"/>
@@ -3225,45 +3185,45 @@
       <c r="AJ28" s="30"/>
       <c r="AK28" s="29"/>
     </row>
-    <row r="29" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" ht="13.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
-      <c r="B29" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="83"/>
-      <c r="V29" s="84"/>
-      <c r="W29" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="83"/>
-      <c r="AB29" s="84"/>
-      <c r="AC29" s="88"/>
-      <c r="AD29" s="54"/>
+      <c r="B29" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="73"/>
+      <c r="AB29" s="61"/>
+      <c r="AC29" s="125"/>
+      <c r="AD29" s="61"/>
       <c r="AE29" s="29"/>
       <c r="AF29" s="29"/>
       <c r="AG29" s="30"/>
@@ -3272,45 +3232,45 @@
       <c r="AJ29" s="30"/>
       <c r="AK29" s="29"/>
     </row>
-    <row r="30" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="37"/>
       <c r="B30" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="60"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="60"/>
-      <c r="AC30" s="87"/>
-      <c r="AD30" s="60"/>
+        <v>64</v>
+      </c>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="49"/>
+      <c r="AB30" s="48"/>
+      <c r="AC30" s="96"/>
+      <c r="AD30" s="48"/>
       <c r="AE30" s="29"/>
       <c r="AF30" s="29"/>
       <c r="AG30" s="30"/>
@@ -3319,45 +3279,45 @@
       <c r="AJ30" s="30"/>
       <c r="AK30" s="29"/>
     </row>
-    <row r="31" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" ht="13.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A31" s="37"/>
-      <c r="B31" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="81"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="81"/>
-      <c r="AB31" s="82"/>
-      <c r="AC31" s="91"/>
-      <c r="AD31" s="57"/>
+      <c r="B31" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="R31" s="94"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="94"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="73"/>
+      <c r="AB31" s="61"/>
+      <c r="AC31" s="100"/>
+      <c r="AD31" s="95"/>
       <c r="AE31" s="29"/>
       <c r="AF31" s="29"/>
       <c r="AG31" s="30"/>
@@ -3366,45 +3326,45 @@
       <c r="AJ31" s="30"/>
       <c r="AK31" s="29"/>
     </row>
-    <row r="32" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="37"/>
       <c r="B32" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="60"/>
-      <c r="W32" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="60"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="60"/>
-      <c r="AC32" s="87"/>
-      <c r="AD32" s="60"/>
+        <v>65</v>
+      </c>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="49"/>
+      <c r="AB32" s="48"/>
+      <c r="AC32" s="96"/>
+      <c r="AD32" s="48"/>
       <c r="AE32" s="29"/>
       <c r="AF32" s="29"/>
       <c r="AG32" s="30"/>
@@ -3413,45 +3373,45 @@
       <c r="AJ32" s="30"/>
       <c r="AK32" s="29"/>
     </row>
-    <row r="33" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" ht="13.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A33" s="37"/>
-      <c r="B33" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="83"/>
-      <c r="V33" s="84"/>
-      <c r="W33" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="54"/>
-      <c r="AA33" s="83"/>
-      <c r="AB33" s="84"/>
-      <c r="AC33" s="88"/>
-      <c r="AD33" s="54"/>
+      <c r="B33" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="61"/>
+      <c r="W33" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="X33" s="60"/>
+      <c r="Y33" s="60"/>
+      <c r="Z33" s="61"/>
+      <c r="AA33" s="73"/>
+      <c r="AB33" s="61"/>
+      <c r="AC33" s="125"/>
+      <c r="AD33" s="61"/>
       <c r="AE33" s="29"/>
       <c r="AF33" s="29"/>
       <c r="AG33" s="30"/>
@@ -3460,45 +3420,45 @@
       <c r="AJ33" s="30"/>
       <c r="AK33" s="29"/>
     </row>
-    <row r="34" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="37"/>
       <c r="B34" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="60"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="60"/>
-      <c r="W34" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="60"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="60"/>
-      <c r="AC34" s="87"/>
-      <c r="AD34" s="60"/>
+        <v>67</v>
+      </c>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="48"/>
+      <c r="AC34" s="96"/>
+      <c r="AD34" s="48"/>
       <c r="AE34" s="29"/>
       <c r="AF34" s="29"/>
       <c r="AG34" s="30"/>
@@ -3507,45 +3467,45 @@
       <c r="AJ34" s="30"/>
       <c r="AK34" s="29"/>
     </row>
-    <row r="35" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" ht="13.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A35" s="37"/>
-      <c r="B35" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="57"/>
-      <c r="U35" s="81"/>
-      <c r="V35" s="82"/>
-      <c r="W35" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="57"/>
-      <c r="AA35" s="81"/>
-      <c r="AB35" s="82"/>
-      <c r="AC35" s="91"/>
-      <c r="AD35" s="57"/>
+      <c r="B35" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="95"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="61"/>
+      <c r="W35" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="95"/>
+      <c r="AA35" s="73"/>
+      <c r="AB35" s="61"/>
+      <c r="AC35" s="100"/>
+      <c r="AD35" s="95"/>
       <c r="AE35" s="29"/>
       <c r="AF35" s="29"/>
       <c r="AG35" s="30"/>
@@ -3554,45 +3514,45 @@
       <c r="AJ35" s="30"/>
       <c r="AK35" s="29"/>
     </row>
-    <row r="36" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="37"/>
       <c r="B36" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="60"/>
-      <c r="U36" s="58"/>
-      <c r="V36" s="60"/>
-      <c r="W36" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="60"/>
-      <c r="AA36" s="58"/>
-      <c r="AB36" s="60"/>
-      <c r="AC36" s="87"/>
-      <c r="AD36" s="60"/>
+        <v>69</v>
+      </c>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="48"/>
+      <c r="W36" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="48"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="48"/>
+      <c r="AC36" s="96"/>
+      <c r="AD36" s="48"/>
       <c r="AE36" s="29"/>
       <c r="AF36" s="29"/>
       <c r="AG36" s="30"/>
@@ -3601,45 +3561,45 @@
       <c r="AJ36" s="30"/>
       <c r="AK36" s="29"/>
     </row>
-    <row r="37" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" ht="13.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37"/>
-      <c r="B37" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="83"/>
-      <c r="P37" s="84"/>
-      <c r="Q37" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="54"/>
-      <c r="U37" s="83"/>
-      <c r="V37" s="84"/>
-      <c r="W37" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="83"/>
-      <c r="AB37" s="84"/>
-      <c r="AC37" s="88"/>
-      <c r="AD37" s="54"/>
+      <c r="B37" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="61"/>
+      <c r="W37" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="61"/>
+      <c r="AA37" s="73"/>
+      <c r="AB37" s="61"/>
+      <c r="AC37" s="125"/>
+      <c r="AD37" s="61"/>
       <c r="AE37" s="29"/>
       <c r="AF37" s="29"/>
       <c r="AG37" s="30"/>
@@ -3648,45 +3608,45 @@
       <c r="AJ37" s="30"/>
       <c r="AK37" s="29"/>
     </row>
-    <row r="38" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="37"/>
       <c r="B38" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="112"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="60"/>
-      <c r="U38" s="58"/>
-      <c r="V38" s="60"/>
-      <c r="W38" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="60"/>
-      <c r="AA38" s="58"/>
-      <c r="AB38" s="60"/>
-      <c r="AC38" s="87"/>
-      <c r="AD38" s="60"/>
+        <v>71</v>
+      </c>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="49"/>
+      <c r="AB38" s="48"/>
+      <c r="AC38" s="96"/>
+      <c r="AD38" s="48"/>
       <c r="AE38" s="29"/>
       <c r="AF38" s="29"/>
       <c r="AG38" s="30"/>
@@ -3695,45 +3655,45 @@
       <c r="AJ38" s="30"/>
       <c r="AK38" s="29"/>
     </row>
-    <row r="39" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" ht="13.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A39" s="37"/>
-      <c r="B39" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="R39" s="56"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="57"/>
-      <c r="U39" s="81"/>
-      <c r="V39" s="82"/>
-      <c r="W39" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="57"/>
-      <c r="AA39" s="81"/>
-      <c r="AB39" s="82"/>
-      <c r="AC39" s="91"/>
-      <c r="AD39" s="57"/>
+      <c r="B39" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="R39" s="94"/>
+      <c r="S39" s="94"/>
+      <c r="T39" s="95"/>
+      <c r="U39" s="73"/>
+      <c r="V39" s="61"/>
+      <c r="W39" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="X39" s="94"/>
+      <c r="Y39" s="94"/>
+      <c r="Z39" s="95"/>
+      <c r="AA39" s="73"/>
+      <c r="AB39" s="61"/>
+      <c r="AC39" s="100"/>
+      <c r="AD39" s="95"/>
       <c r="AE39" s="29"/>
       <c r="AF39" s="29"/>
       <c r="AG39" s="30"/>
@@ -3742,45 +3702,45 @@
       <c r="AJ39" s="30"/>
       <c r="AK39" s="29"/>
     </row>
-    <row r="40" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="37"/>
       <c r="B40" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="60"/>
-      <c r="U40" s="58"/>
-      <c r="V40" s="60"/>
-      <c r="W40" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="60"/>
-      <c r="AA40" s="58"/>
-      <c r="AB40" s="60"/>
-      <c r="AC40" s="87"/>
-      <c r="AD40" s="60"/>
+        <v>73</v>
+      </c>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="49"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X40" s="47"/>
+      <c r="Y40" s="47"/>
+      <c r="Z40" s="48"/>
+      <c r="AA40" s="49"/>
+      <c r="AB40" s="48"/>
+      <c r="AC40" s="96"/>
+      <c r="AD40" s="48"/>
       <c r="AE40" s="29"/>
       <c r="AF40" s="29"/>
       <c r="AG40" s="30"/>
@@ -3789,45 +3749,45 @@
       <c r="AJ40" s="30"/>
       <c r="AK40" s="29"/>
     </row>
-    <row r="41" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" ht="13.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A41" s="37"/>
-      <c r="B41" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="84"/>
-      <c r="Q41" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="83"/>
-      <c r="V41" s="84"/>
-      <c r="W41" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="X41" s="53"/>
-      <c r="Y41" s="53"/>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="83"/>
-      <c r="AB41" s="84"/>
-      <c r="AC41" s="88"/>
-      <c r="AD41" s="54"/>
+      <c r="B41" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="61"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="61"/>
+      <c r="W41" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="X41" s="60"/>
+      <c r="Y41" s="60"/>
+      <c r="Z41" s="61"/>
+      <c r="AA41" s="73"/>
+      <c r="AB41" s="61"/>
+      <c r="AC41" s="125"/>
+      <c r="AD41" s="61"/>
       <c r="AE41" s="29"/>
       <c r="AF41" s="29"/>
       <c r="AG41" s="30"/>
@@ -3836,45 +3796,45 @@
       <c r="AJ41" s="30"/>
       <c r="AK41" s="29"/>
     </row>
-    <row r="42" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="37"/>
       <c r="B42" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="60"/>
-      <c r="U42" s="58"/>
-      <c r="V42" s="60"/>
-      <c r="W42" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="X42" s="59"/>
-      <c r="Y42" s="59"/>
-      <c r="Z42" s="60"/>
-      <c r="AA42" s="58"/>
-      <c r="AB42" s="60"/>
-      <c r="AC42" s="87"/>
-      <c r="AD42" s="60"/>
+        <v>79</v>
+      </c>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="R42" s="47"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="49"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X42" s="47"/>
+      <c r="Y42" s="47"/>
+      <c r="Z42" s="48"/>
+      <c r="AA42" s="49"/>
+      <c r="AB42" s="48"/>
+      <c r="AC42" s="96"/>
+      <c r="AD42" s="48"/>
       <c r="AE42" s="29"/>
       <c r="AF42" s="29"/>
       <c r="AG42" s="30"/>
@@ -3883,45 +3843,45 @@
       <c r="AJ42" s="30"/>
       <c r="AK42" s="29"/>
     </row>
-    <row r="43" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" ht="13.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A43" s="37"/>
-      <c r="B43" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="81"/>
-      <c r="P43" s="82"/>
-      <c r="Q43" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="R43" s="56"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="57"/>
-      <c r="U43" s="81"/>
-      <c r="V43" s="82"/>
-      <c r="W43" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="57"/>
-      <c r="AA43" s="81"/>
-      <c r="AB43" s="82"/>
-      <c r="AC43" s="91"/>
-      <c r="AD43" s="57"/>
+      <c r="B43" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" s="94"/>
+      <c r="K43" s="94"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="R43" s="94"/>
+      <c r="S43" s="94"/>
+      <c r="T43" s="95"/>
+      <c r="U43" s="73"/>
+      <c r="V43" s="61"/>
+      <c r="W43" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="X43" s="94"/>
+      <c r="Y43" s="94"/>
+      <c r="Z43" s="95"/>
+      <c r="AA43" s="73"/>
+      <c r="AB43" s="61"/>
+      <c r="AC43" s="100"/>
+      <c r="AD43" s="95"/>
       <c r="AE43" s="29"/>
       <c r="AF43" s="29"/>
       <c r="AG43" s="30"/>
@@ -3930,45 +3890,45 @@
       <c r="AJ43" s="30"/>
       <c r="AK43" s="29"/>
     </row>
-    <row r="44" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="37"/>
       <c r="B44" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="60"/>
-      <c r="O44" s="58"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="R44" s="59"/>
-      <c r="S44" s="59"/>
-      <c r="T44" s="60"/>
-      <c r="U44" s="58"/>
-      <c r="V44" s="60"/>
-      <c r="W44" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="X44" s="59"/>
-      <c r="Y44" s="59"/>
-      <c r="Z44" s="60"/>
-      <c r="AA44" s="58"/>
-      <c r="AB44" s="60"/>
-      <c r="AC44" s="87"/>
-      <c r="AD44" s="60"/>
+        <v>76</v>
+      </c>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="R44" s="47"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="49"/>
+      <c r="V44" s="48"/>
+      <c r="W44" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X44" s="47"/>
+      <c r="Y44" s="47"/>
+      <c r="Z44" s="48"/>
+      <c r="AA44" s="49"/>
+      <c r="AB44" s="48"/>
+      <c r="AC44" s="96"/>
+      <c r="AD44" s="48"/>
       <c r="AE44" s="29"/>
       <c r="AF44" s="29"/>
       <c r="AG44" s="30"/>
@@ -3977,45 +3937,45 @@
       <c r="AJ44" s="30"/>
       <c r="AK44" s="29"/>
     </row>
-    <row r="45" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" ht="13.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A45" s="37"/>
-      <c r="B45" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="83"/>
-      <c r="P45" s="84"/>
-      <c r="Q45" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="83"/>
-      <c r="V45" s="84"/>
-      <c r="W45" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="53"/>
-      <c r="Z45" s="54"/>
-      <c r="AA45" s="83"/>
-      <c r="AB45" s="84"/>
-      <c r="AC45" s="88"/>
-      <c r="AD45" s="54"/>
+      <c r="B45" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="84"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="R45" s="60"/>
+      <c r="S45" s="60"/>
+      <c r="T45" s="61"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="61"/>
+      <c r="W45" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="X45" s="60"/>
+      <c r="Y45" s="60"/>
+      <c r="Z45" s="61"/>
+      <c r="AA45" s="73"/>
+      <c r="AB45" s="61"/>
+      <c r="AC45" s="125"/>
+      <c r="AD45" s="61"/>
       <c r="AE45" s="29"/>
       <c r="AF45" s="29"/>
       <c r="AG45" s="30"/>
@@ -4024,45 +3984,45 @@
       <c r="AJ45" s="30"/>
       <c r="AK45" s="29"/>
     </row>
-    <row r="46" spans="1:37" ht="13.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="37"/>
       <c r="B46" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="60"/>
-      <c r="O46" s="58"/>
-      <c r="P46" s="60"/>
-      <c r="Q46" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="R46" s="59"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="60"/>
-      <c r="U46" s="58"/>
-      <c r="V46" s="60"/>
-      <c r="W46" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="X46" s="59"/>
-      <c r="Y46" s="59"/>
-      <c r="Z46" s="60"/>
-      <c r="AA46" s="58"/>
-      <c r="AB46" s="60"/>
-      <c r="AC46" s="87"/>
-      <c r="AD46" s="60"/>
+        <v>78</v>
+      </c>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="R46" s="47"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="48"/>
+      <c r="U46" s="49"/>
+      <c r="V46" s="48"/>
+      <c r="W46" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X46" s="47"/>
+      <c r="Y46" s="47"/>
+      <c r="Z46" s="48"/>
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="48"/>
+      <c r="AC46" s="96"/>
+      <c r="AD46" s="48"/>
       <c r="AE46" s="29"/>
       <c r="AF46" s="29"/>
       <c r="AG46" s="30"/>
@@ -4086,37 +4046,37 @@
     </row>
     <row r="48" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="34"/>
-      <c r="B48" s="120" t="s">
+      <c r="B48" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="121"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="121"/>
-      <c r="L48" s="121"/>
-      <c r="M48" s="121"/>
-      <c r="N48" s="121"/>
-      <c r="O48" s="121"/>
-      <c r="P48" s="121"/>
-      <c r="Q48" s="121"/>
-      <c r="R48" s="121"/>
-      <c r="S48" s="121"/>
-      <c r="T48" s="121"/>
-      <c r="U48" s="121"/>
-      <c r="V48" s="121"/>
-      <c r="W48" s="121"/>
-      <c r="X48" s="121"/>
-      <c r="Y48" s="121"/>
-      <c r="Z48" s="121"/>
-      <c r="AA48" s="121"/>
-      <c r="AB48" s="121"/>
-      <c r="AC48" s="121"/>
-      <c r="AD48" s="65"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="128"/>
+      <c r="J48" s="128"/>
+      <c r="K48" s="128"/>
+      <c r="L48" s="128"/>
+      <c r="M48" s="128"/>
+      <c r="N48" s="128"/>
+      <c r="O48" s="128"/>
+      <c r="P48" s="128"/>
+      <c r="Q48" s="128"/>
+      <c r="R48" s="128"/>
+      <c r="S48" s="128"/>
+      <c r="T48" s="128"/>
+      <c r="U48" s="128"/>
+      <c r="V48" s="128"/>
+      <c r="W48" s="128"/>
+      <c r="X48" s="128"/>
+      <c r="Y48" s="128"/>
+      <c r="Z48" s="128"/>
+      <c r="AA48" s="128"/>
+      <c r="AB48" s="128"/>
+      <c r="AC48" s="128"/>
+      <c r="AD48" s="129"/>
       <c r="AE48" s="29"/>
       <c r="AF48" s="29"/>
       <c r="AG48" s="30"/>
@@ -4127,35 +4087,35 @@
     </row>
     <row r="49" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="34"/>
-      <c r="B49" s="117"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="118"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="118"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="118"/>
-      <c r="J49" s="118"/>
-      <c r="K49" s="118"/>
-      <c r="L49" s="118"/>
-      <c r="M49" s="118"/>
-      <c r="N49" s="118"/>
-      <c r="O49" s="118"/>
-      <c r="P49" s="118"/>
-      <c r="Q49" s="118"/>
-      <c r="R49" s="118"/>
-      <c r="S49" s="118"/>
-      <c r="T49" s="118"/>
-      <c r="U49" s="118"/>
-      <c r="V49" s="118"/>
-      <c r="W49" s="118"/>
-      <c r="X49" s="118"/>
-      <c r="Y49" s="118"/>
-      <c r="Z49" s="118"/>
-      <c r="AA49" s="118"/>
-      <c r="AB49" s="118"/>
-      <c r="AC49" s="118"/>
-      <c r="AD49" s="119"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="82"/>
+      <c r="O49" s="82"/>
+      <c r="P49" s="82"/>
+      <c r="Q49" s="82"/>
+      <c r="R49" s="82"/>
+      <c r="S49" s="82"/>
+      <c r="T49" s="82"/>
+      <c r="U49" s="82"/>
+      <c r="V49" s="82"/>
+      <c r="W49" s="82"/>
+      <c r="X49" s="82"/>
+      <c r="Y49" s="82"/>
+      <c r="Z49" s="82"/>
+      <c r="AA49" s="82"/>
+      <c r="AB49" s="82"/>
+      <c r="AC49" s="82"/>
+      <c r="AD49" s="83"/>
       <c r="AE49" s="29"/>
       <c r="AF49" s="29"/>
       <c r="AG49" s="30"/>
@@ -4166,35 +4126,35 @@
     </row>
     <row r="50" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34"/>
-      <c r="B50" s="117"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="118"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="118"/>
-      <c r="K50" s="118"/>
-      <c r="L50" s="118"/>
-      <c r="M50" s="118"/>
-      <c r="N50" s="118"/>
-      <c r="O50" s="118"/>
-      <c r="P50" s="118"/>
-      <c r="Q50" s="118"/>
-      <c r="R50" s="118"/>
-      <c r="S50" s="118"/>
-      <c r="T50" s="118"/>
-      <c r="U50" s="118"/>
-      <c r="V50" s="118"/>
-      <c r="W50" s="118"/>
-      <c r="X50" s="118"/>
-      <c r="Y50" s="118"/>
-      <c r="Z50" s="118"/>
-      <c r="AA50" s="118"/>
-      <c r="AB50" s="118"/>
-      <c r="AC50" s="118"/>
-      <c r="AD50" s="119"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="82"/>
+      <c r="O50" s="82"/>
+      <c r="P50" s="82"/>
+      <c r="Q50" s="82"/>
+      <c r="R50" s="82"/>
+      <c r="S50" s="82"/>
+      <c r="T50" s="82"/>
+      <c r="U50" s="82"/>
+      <c r="V50" s="82"/>
+      <c r="W50" s="82"/>
+      <c r="X50" s="82"/>
+      <c r="Y50" s="82"/>
+      <c r="Z50" s="82"/>
+      <c r="AA50" s="82"/>
+      <c r="AB50" s="82"/>
+      <c r="AC50" s="82"/>
+      <c r="AD50" s="83"/>
       <c r="AE50" s="29"/>
       <c r="AF50" s="29"/>
       <c r="AG50" s="30"/>
@@ -4205,35 +4165,35 @@
     </row>
     <row r="51" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="34"/>
-      <c r="B51" s="117"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="118"/>
-      <c r="F51" s="118"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="118"/>
-      <c r="J51" s="118"/>
-      <c r="K51" s="118"/>
-      <c r="L51" s="118"/>
-      <c r="M51" s="118"/>
-      <c r="N51" s="118"/>
-      <c r="O51" s="118"/>
-      <c r="P51" s="118"/>
-      <c r="Q51" s="118"/>
-      <c r="R51" s="118"/>
-      <c r="S51" s="118"/>
-      <c r="T51" s="118"/>
-      <c r="U51" s="118"/>
-      <c r="V51" s="118"/>
-      <c r="W51" s="118"/>
-      <c r="X51" s="118"/>
-      <c r="Y51" s="118"/>
-      <c r="Z51" s="118"/>
-      <c r="AA51" s="118"/>
-      <c r="AB51" s="118"/>
-      <c r="AC51" s="118"/>
-      <c r="AD51" s="119"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="82"/>
+      <c r="P51" s="82"/>
+      <c r="Q51" s="82"/>
+      <c r="R51" s="82"/>
+      <c r="S51" s="82"/>
+      <c r="T51" s="82"/>
+      <c r="U51" s="82"/>
+      <c r="V51" s="82"/>
+      <c r="W51" s="82"/>
+      <c r="X51" s="82"/>
+      <c r="Y51" s="82"/>
+      <c r="Z51" s="82"/>
+      <c r="AA51" s="82"/>
+      <c r="AB51" s="82"/>
+      <c r="AC51" s="82"/>
+      <c r="AD51" s="83"/>
       <c r="AE51" s="29"/>
       <c r="AF51" s="29"/>
       <c r="AG51" s="30"/>
@@ -4244,35 +4204,35 @@
     </row>
     <row r="52" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="34"/>
-      <c r="B52" s="117"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="118"/>
-      <c r="N52" s="118"/>
-      <c r="O52" s="118"/>
-      <c r="P52" s="118"/>
-      <c r="Q52" s="118"/>
-      <c r="R52" s="118"/>
-      <c r="S52" s="118"/>
-      <c r="T52" s="118"/>
-      <c r="U52" s="118"/>
-      <c r="V52" s="118"/>
-      <c r="W52" s="118"/>
-      <c r="X52" s="118"/>
-      <c r="Y52" s="118"/>
-      <c r="Z52" s="118"/>
-      <c r="AA52" s="118"/>
-      <c r="AB52" s="118"/>
-      <c r="AC52" s="118"/>
-      <c r="AD52" s="119"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="82"/>
+      <c r="P52" s="82"/>
+      <c r="Q52" s="82"/>
+      <c r="R52" s="82"/>
+      <c r="S52" s="82"/>
+      <c r="T52" s="82"/>
+      <c r="U52" s="82"/>
+      <c r="V52" s="82"/>
+      <c r="W52" s="82"/>
+      <c r="X52" s="82"/>
+      <c r="Y52" s="82"/>
+      <c r="Z52" s="82"/>
+      <c r="AA52" s="82"/>
+      <c r="AB52" s="82"/>
+      <c r="AC52" s="82"/>
+      <c r="AD52" s="83"/>
       <c r="AE52" s="29"/>
       <c r="AF52" s="29"/>
       <c r="AG52" s="30"/>
@@ -4283,41 +4243,41 @@
     </row>
     <row r="53" spans="1:37" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="34"/>
-      <c r="B53" s="144" t="s">
+      <c r="B53" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="145"/>
-      <c r="D53" s="145"/>
-      <c r="E53" s="145"/>
-      <c r="F53" s="145"/>
-      <c r="G53" s="145"/>
-      <c r="H53" s="146"/>
-      <c r="I53" s="143" t="s">
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="48"/>
-      <c r="T53" s="152" t="s">
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="55"/>
+      <c r="T53" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
-      <c r="X53" s="47"/>
-      <c r="Y53" s="47"/>
-      <c r="Z53" s="47"/>
-      <c r="AA53" s="47"/>
-      <c r="AB53" s="47"/>
-      <c r="AC53" s="47"/>
-      <c r="AD53" s="48"/>
+      <c r="U53" s="54"/>
+      <c r="V53" s="54"/>
+      <c r="W53" s="54"/>
+      <c r="X53" s="54"/>
+      <c r="Y53" s="54"/>
+      <c r="Z53" s="54"/>
+      <c r="AA53" s="54"/>
+      <c r="AB53" s="54"/>
+      <c r="AC53" s="54"/>
+      <c r="AD53" s="55"/>
       <c r="AE53" s="29"/>
       <c r="AF53" s="29"/>
       <c r="AG53" s="30"/>
@@ -4328,35 +4288,35 @@
     </row>
     <row r="54" spans="1:37" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="34"/>
-      <c r="B54" s="147"/>
-      <c r="C54" s="148"/>
-      <c r="D54" s="148"/>
-      <c r="E54" s="148"/>
-      <c r="F54" s="148"/>
-      <c r="G54" s="148"/>
-      <c r="H54" s="149"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="50"/>
-      <c r="N54" s="50"/>
-      <c r="O54" s="50"/>
-      <c r="P54" s="50"/>
-      <c r="Q54" s="50"/>
-      <c r="R54" s="50"/>
-      <c r="S54" s="51"/>
-      <c r="T54" s="50"/>
-      <c r="U54" s="50"/>
-      <c r="V54" s="50"/>
-      <c r="W54" s="50"/>
-      <c r="X54" s="50"/>
-      <c r="Y54" s="50"/>
-      <c r="Z54" s="50"/>
-      <c r="AA54" s="50"/>
-      <c r="AB54" s="50"/>
-      <c r="AC54" s="50"/>
-      <c r="AD54" s="51"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="57"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="57"/>
+      <c r="Q54" s="57"/>
+      <c r="R54" s="57"/>
+      <c r="S54" s="58"/>
+      <c r="T54" s="57"/>
+      <c r="U54" s="57"/>
+      <c r="V54" s="57"/>
+      <c r="W54" s="57"/>
+      <c r="X54" s="57"/>
+      <c r="Y54" s="57"/>
+      <c r="Z54" s="57"/>
+      <c r="AA54" s="57"/>
+      <c r="AB54" s="57"/>
+      <c r="AC54" s="57"/>
+      <c r="AD54" s="58"/>
       <c r="AE54" s="29"/>
       <c r="AF54" s="29"/>
       <c r="AG54" s="30"/>
@@ -4385,19 +4345,19 @@
       <c r="Q55" s="44"/>
       <c r="R55" s="44"/>
       <c r="S55" s="18"/>
-      <c r="T55" s="122" t="s">
+      <c r="T55" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="U55" s="50"/>
-      <c r="V55" s="50"/>
-      <c r="W55" s="50"/>
-      <c r="X55" s="50"/>
-      <c r="Y55" s="50"/>
-      <c r="Z55" s="50"/>
-      <c r="AA55" s="50"/>
-      <c r="AB55" s="50"/>
-      <c r="AC55" s="50"/>
-      <c r="AD55" s="51"/>
+      <c r="U55" s="57"/>
+      <c r="V55" s="57"/>
+      <c r="W55" s="57"/>
+      <c r="X55" s="57"/>
+      <c r="Y55" s="57"/>
+      <c r="Z55" s="57"/>
+      <c r="AA55" s="57"/>
+      <c r="AB55" s="57"/>
+      <c r="AC55" s="57"/>
+      <c r="AD55" s="58"/>
       <c r="AE55" s="29"/>
       <c r="AF55" s="29"/>
       <c r="AG55" s="30"/>
@@ -4408,41 +4368,41 @@
     </row>
     <row r="56" spans="1:37" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="34"/>
-      <c r="B56" s="134" t="s">
+      <c r="B56" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="135"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="135"/>
-      <c r="F56" s="135"/>
-      <c r="G56" s="135"/>
-      <c r="H56" s="136"/>
-      <c r="I56" s="126" t="s">
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="107"/>
+      <c r="I56" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="J56" s="76"/>
-      <c r="K56" s="76"/>
-      <c r="L56" s="76"/>
-      <c r="M56" s="76"/>
-      <c r="N56" s="76"/>
-      <c r="O56" s="76"/>
-      <c r="P56" s="76"/>
-      <c r="Q56" s="76"/>
-      <c r="R56" s="76"/>
-      <c r="S56" s="77"/>
-      <c r="T56" s="114" t="s">
+      <c r="J56" s="122"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="122"/>
+      <c r="M56" s="122"/>
+      <c r="N56" s="122"/>
+      <c r="O56" s="122"/>
+      <c r="P56" s="122"/>
+      <c r="Q56" s="122"/>
+      <c r="R56" s="122"/>
+      <c r="S56" s="123"/>
+      <c r="T56" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="U56" s="76"/>
-      <c r="V56" s="76"/>
-      <c r="W56" s="76"/>
-      <c r="X56" s="76"/>
-      <c r="Y56" s="76"/>
-      <c r="Z56" s="76"/>
-      <c r="AA56" s="76"/>
-      <c r="AB56" s="76"/>
-      <c r="AC56" s="76"/>
-      <c r="AD56" s="77"/>
+      <c r="U56" s="122"/>
+      <c r="V56" s="122"/>
+      <c r="W56" s="122"/>
+      <c r="X56" s="122"/>
+      <c r="Y56" s="122"/>
+      <c r="Z56" s="122"/>
+      <c r="AA56" s="122"/>
+      <c r="AB56" s="122"/>
+      <c r="AC56" s="122"/>
+      <c r="AD56" s="123"/>
       <c r="AE56" s="29"/>
       <c r="AF56" s="29"/>
       <c r="AG56" s="30"/>
@@ -4453,37 +4413,37 @@
     </row>
     <row r="57" spans="1:37" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="34"/>
-      <c r="B57" s="131" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="132"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="132"/>
-      <c r="F57" s="132"/>
-      <c r="G57" s="132"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="132"/>
-      <c r="K57" s="132"/>
-      <c r="L57" s="132"/>
-      <c r="M57" s="132"/>
-      <c r="N57" s="132"/>
-      <c r="O57" s="132"/>
-      <c r="P57" s="132"/>
-      <c r="Q57" s="132"/>
-      <c r="R57" s="132"/>
-      <c r="S57" s="132"/>
-      <c r="T57" s="132"/>
-      <c r="U57" s="132"/>
-      <c r="V57" s="132"/>
-      <c r="W57" s="132"/>
-      <c r="X57" s="132"/>
-      <c r="Y57" s="132"/>
-      <c r="Z57" s="132"/>
-      <c r="AA57" s="132"/>
-      <c r="AB57" s="132"/>
-      <c r="AC57" s="132"/>
-      <c r="AD57" s="133"/>
+      <c r="B57" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="102"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="102"/>
+      <c r="F57" s="102"/>
+      <c r="G57" s="102"/>
+      <c r="H57" s="102"/>
+      <c r="I57" s="102"/>
+      <c r="J57" s="102"/>
+      <c r="K57" s="102"/>
+      <c r="L57" s="102"/>
+      <c r="M57" s="102"/>
+      <c r="N57" s="102"/>
+      <c r="O57" s="102"/>
+      <c r="P57" s="102"/>
+      <c r="Q57" s="102"/>
+      <c r="R57" s="102"/>
+      <c r="S57" s="102"/>
+      <c r="T57" s="102"/>
+      <c r="U57" s="102"/>
+      <c r="V57" s="102"/>
+      <c r="W57" s="102"/>
+      <c r="X57" s="102"/>
+      <c r="Y57" s="102"/>
+      <c r="Z57" s="102"/>
+      <c r="AA57" s="102"/>
+      <c r="AB57" s="102"/>
+      <c r="AC57" s="102"/>
+      <c r="AD57" s="103"/>
       <c r="AE57" s="29"/>
       <c r="AF57" s="29"/>
       <c r="AG57" s="30"/>
@@ -4727,8 +4687,253 @@
       <c r="AK63" s="29"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7PefcfNUhMWVq7QKQ+3paLEUyue+dIAsRHj5aa580Vu3nvRg1yNvfZ652TVl0+fKo5qQ8y6+w2BdXMaawD31iw==" saltValue="XH2AFbzASVzwcrSA1yrNGg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="270">
+    <mergeCell ref="W38:Z38"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="D7:V7"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H3:V3"/>
+    <mergeCell ref="W4:AD5"/>
+    <mergeCell ref="W7:AD7"/>
+    <mergeCell ref="B17:AD17"/>
+    <mergeCell ref="H5:V5"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AA38:AB38"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="W2:AD3"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="AC20:AD21"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="W36:Z36"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="W40:Z40"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="B2:G5"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="B20:H21"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="H4:V4"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="B10:C12"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="T56:AD56"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="I20:AB20"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="T55:AD55"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="Q46:T46"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="B51:AD51"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="W42:Z42"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="B50:AD50"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="B48:AD48"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AA46:AB46"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AC46:AD46"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="W37:Z37"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="W39:Z39"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="W44:Z44"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="B19:AD19"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="L10:N12"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="I56:S56"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="B15:AD15"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="W43:Z43"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="B18:AD18"/>
+    <mergeCell ref="B52:AD52"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="AA45:AB45"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B13:AD13"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="D8:V8"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="B16:AD16"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="B14:AD14"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="B57:AD57"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W45:Z45"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="Q45:T45"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="AB12:AD12"/>
     <mergeCell ref="Q44:T44"/>
     <mergeCell ref="W46:Z46"/>
     <mergeCell ref="Q22:T22"/>
@@ -4753,252 +4958,6 @@
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C45:H45"/>
     <mergeCell ref="C34:H34"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="B14:AD14"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="B57:AD57"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W45:Z45"/>
-    <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="Q45:T45"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="B13:AD13"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="D8:V8"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="B16:AD16"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="B19:AD19"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="L10:N12"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="I56:S56"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="B15:AD15"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="W43:Z43"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="B18:AD18"/>
-    <mergeCell ref="B52:AD52"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="AA45:AB45"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="AA46:AB46"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AC46:AD46"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="B51:AD51"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="W42:Z42"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="B50:AD50"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="B48:AD48"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="W37:Z37"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="T56:AD56"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="I20:AB20"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="T55:AD55"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="Q46:T46"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="B2:G5"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="B20:H21"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="H4:V4"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="B10:C12"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="I44:N44"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="W39:Z39"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="W44:Z44"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="AC20:AD21"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="W36:Z36"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="W40:Z40"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="AC43:AD43"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="W2:AD3"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="W38:Z38"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="D7:V7"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="H3:V3"/>
-    <mergeCell ref="W4:AD5"/>
-    <mergeCell ref="W7:AD7"/>
-    <mergeCell ref="B17:AD17"/>
-    <mergeCell ref="H5:V5"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AA38:AB38"/>
   </mergeCells>
   <conditionalFormatting sqref="C23 C25 C27 C29 C31 C33 C35 C37 C39 C41 C43 C45">
     <cfRule type="expression" dxfId="2" priority="3">
@@ -5016,7 +4975,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/template/xlsx/diario.xlsx
+++ b/template/xlsx/diario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tecnika\Documents\Visual Code\Media_Django\template\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECD1EB4-0FE8-4806-B08A-034FF9A21732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD61DEB8-BCDA-4B58-AF84-BC643675915D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTROLE" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1064,6 +1064,19 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1093,7 +1106,7 @@
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1220,32 +1233,241 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1264,226 +1486,30 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -1914,8 +1940,8 @@
   </sheetPr>
   <dimension ref="A1:AK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:V8"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1993,39 +2019,39 @@
     </row>
     <row r="2" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="147" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="145" t="s">
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="55"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="61"/>
       <c r="AE2" s="29"/>
       <c r="AF2" s="29"/>
       <c r="AG2" s="32"/>
@@ -2036,37 +2062,37 @@
     </row>
     <row r="3" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="140" t="s">
+      <c r="B3" s="97"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="58"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="68"/>
       <c r="AE3" s="29"/>
       <c r="AF3" s="29"/>
       <c r="AG3" s="32"/>
@@ -2077,39 +2103,39 @@
     </row>
     <row r="4" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="140" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="148" t="s">
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="58"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="68"/>
       <c r="AE4" s="29"/>
       <c r="AF4" s="29"/>
       <c r="AG4" s="32"/>
@@ -2120,37 +2146,37 @@
     </row>
     <row r="5" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="150" t="s">
+      <c r="B5" s="99"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="123"/>
-      <c r="W5" s="139"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="123"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="71"/>
+      <c r="AD5" s="72"/>
       <c r="AE5" s="29"/>
       <c r="AF5" s="29"/>
       <c r="AG5" s="30"/>
@@ -2173,41 +2199,41 @@
     </row>
     <row r="7" spans="1:37" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="146" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="77"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="149" t="s">
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="77"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="78"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="51"/>
       <c r="AE7" s="29"/>
       <c r="AF7" s="29"/>
       <c r="AG7" s="31"/>
@@ -2218,41 +2244,41 @@
     </row>
     <row r="8" spans="1:37" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35"/>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="77"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="78"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="51"/>
       <c r="W8" s="4"/>
-      <c r="X8" s="86" t="s">
+      <c r="X8" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="78"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="51"/>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="86" t="s">
+      <c r="AB8" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="78"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="51"/>
       <c r="AE8" s="29"/>
       <c r="AF8" s="29"/>
       <c r="AG8" s="30"/>
@@ -2263,53 +2289,53 @@
     </row>
     <row r="9" spans="1:37" s="3" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35"/>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="71">
+      <c r="C9" s="135"/>
+      <c r="D9" s="147">
         <v>0</v>
       </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="87" t="s">
+      <c r="E9" s="148"/>
+      <c r="F9" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="90"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="92" t="s">
+      <c r="G9" s="137"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="69"/>
-      <c r="K9" s="68" t="s">
+      <c r="J9" s="102"/>
+      <c r="K9" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="126" t="s">
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="68" t="s">
+      <c r="P9" s="102"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="69"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="70"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="103"/>
+      <c r="U9" s="126"/>
+      <c r="V9" s="103"/>
       <c r="W9" s="6"/>
-      <c r="X9" s="68" t="s">
+      <c r="X9" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="70"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="103"/>
       <c r="AA9" s="7"/>
-      <c r="AB9" s="68" t="s">
+      <c r="AB9" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="AC9" s="69"/>
-      <c r="AD9" s="70"/>
+      <c r="AC9" s="102"/>
+      <c r="AD9" s="103"/>
       <c r="AE9" s="29"/>
       <c r="AF9" s="29"/>
       <c r="AG9" s="30"/>
@@ -2320,10 +2346,10 @@
     </row>
     <row r="10" spans="1:37" s="3" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="35"/>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="116"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="26" t="s">
         <v>14</v>
       </c>
@@ -2336,39 +2362,39 @@
         <v>16</v>
       </c>
       <c r="I10" s="9"/>
-      <c r="J10" s="141" t="s">
+      <c r="J10" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="52"/>
-      <c r="L10" s="114" t="s">
+      <c r="K10" s="89"/>
+      <c r="L10" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="115"/>
-      <c r="N10" s="116"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="86"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="50" t="s">
+      <c r="P10" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="52"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
       <c r="S10" s="40"/>
-      <c r="T10" s="50" t="s">
+      <c r="T10" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="51"/>
-      <c r="V10" s="52"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="89"/>
       <c r="W10" s="40"/>
-      <c r="X10" s="50" t="s">
+      <c r="X10" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="52"/>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="89"/>
       <c r="AA10" s="40"/>
-      <c r="AB10" s="50" t="s">
+      <c r="AB10" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="52"/>
+      <c r="AC10" s="88"/>
+      <c r="AD10" s="89"/>
       <c r="AE10" s="29"/>
       <c r="AF10" s="29"/>
       <c r="AG10" s="30"/>
@@ -2379,8 +2405,8 @@
     </row>
     <row r="11" spans="1:37" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="58"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="27" t="s">
         <v>23</v>
       </c>
@@ -2393,37 +2419,37 @@
         <v>16</v>
       </c>
       <c r="I11" s="11"/>
-      <c r="J11" s="124" t="s">
+      <c r="J11" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="78"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="58"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="68"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="89" t="s">
+      <c r="P11" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="78"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="51"/>
       <c r="S11" s="41"/>
-      <c r="T11" s="76" t="s">
+      <c r="T11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="77"/>
-      <c r="V11" s="78"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="51"/>
       <c r="W11" s="41"/>
-      <c r="X11" s="76" t="s">
+      <c r="X11" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="78"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="51"/>
       <c r="AA11" s="41"/>
-      <c r="AB11" s="76" t="s">
+      <c r="AB11" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="78"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="51"/>
       <c r="AE11" s="29"/>
       <c r="AF11" s="29"/>
       <c r="AG11" s="30"/>
@@ -2434,8 +2460,8 @@
     </row>
     <row r="12" spans="1:37" s="3" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="120"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="28" t="s">
         <v>28</v>
       </c>
@@ -2448,35 +2474,35 @@
         <v>16</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="80" t="s">
+      <c r="J12" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="70"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="120"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="109"/>
       <c r="O12" s="12"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="70"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="103"/>
       <c r="S12" s="42"/>
-      <c r="T12" s="91" t="s">
+      <c r="T12" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="U12" s="69"/>
-      <c r="V12" s="70"/>
+      <c r="U12" s="102"/>
+      <c r="V12" s="103"/>
       <c r="W12" s="42"/>
-      <c r="X12" s="91" t="s">
+      <c r="X12" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="70"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="103"/>
       <c r="AA12" s="42"/>
-      <c r="AB12" s="91" t="s">
+      <c r="AB12" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="70"/>
+      <c r="AC12" s="102"/>
+      <c r="AD12" s="103"/>
       <c r="AE12" s="29"/>
       <c r="AF12" s="29"/>
       <c r="AG12" s="30"/>
@@ -2490,34 +2516,34 @@
       <c r="B13" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="52"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="88"/>
+      <c r="AD13" s="89"/>
       <c r="AE13" s="29"/>
       <c r="AF13" s="29"/>
       <c r="AG13" s="30"/>
@@ -2528,35 +2554,35 @@
     </row>
     <row r="14" spans="1:37" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="77"/>
-      <c r="AA14" s="77"/>
-      <c r="AB14" s="77"/>
-      <c r="AC14" s="77"/>
-      <c r="AD14" s="78"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="51"/>
       <c r="AE14" s="29"/>
       <c r="AF14" s="29"/>
       <c r="AG14" s="30"/>
@@ -2567,35 +2593,35 @@
     </row>
     <row r="15" spans="1:37" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="77"/>
-      <c r="W15" s="77"/>
-      <c r="X15" s="77"/>
-      <c r="Y15" s="77"/>
-      <c r="Z15" s="77"/>
-      <c r="AA15" s="77"/>
-      <c r="AB15" s="77"/>
-      <c r="AC15" s="77"/>
-      <c r="AD15" s="78"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="51"/>
       <c r="AE15" s="29"/>
       <c r="AF15" s="29"/>
       <c r="AG15" s="30"/>
@@ -2606,35 +2632,35 @@
     </row>
     <row r="16" spans="1:37" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="77"/>
-      <c r="AB16" s="77"/>
-      <c r="AC16" s="77"/>
-      <c r="AD16" s="78"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="51"/>
       <c r="AE16" s="29"/>
       <c r="AF16" s="29"/>
       <c r="AG16" s="30"/>
@@ -2645,35 +2671,35 @@
     </row>
     <row r="17" spans="1:37" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="77"/>
-      <c r="AA17" s="77"/>
-      <c r="AB17" s="77"/>
-      <c r="AC17" s="77"/>
-      <c r="AD17" s="78"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="51"/>
       <c r="AE17" s="29"/>
       <c r="AF17" s="29"/>
       <c r="AG17" s="30"/>
@@ -2684,35 +2710,35 @@
     </row>
     <row r="18" spans="1:37" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="77"/>
-      <c r="AA18" s="77"/>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="78"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="51"/>
       <c r="AE18" s="29"/>
       <c r="AF18" s="29"/>
       <c r="AG18" s="30"/>
@@ -2723,35 +2749,35 @@
     </row>
     <row r="19" spans="1:37" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="34"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="69"/>
-      <c r="AD19" s="70"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="102"/>
+      <c r="X19" s="102"/>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="102"/>
+      <c r="AA19" s="102"/>
+      <c r="AB19" s="102"/>
+      <c r="AC19" s="102"/>
+      <c r="AD19" s="103"/>
       <c r="AE19" s="29"/>
       <c r="AF19" s="29"/>
       <c r="AG19" s="30"/>
@@ -2762,41 +2788,41 @@
     </row>
     <row r="20" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34"/>
-      <c r="B20" s="138" t="s">
+      <c r="B20" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="58"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="68"/>
       <c r="I20" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="142" t="s">
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="88"/>
+      <c r="U20" s="88"/>
+      <c r="V20" s="88"/>
+      <c r="W20" s="88"/>
+      <c r="X20" s="88"/>
+      <c r="Y20" s="88"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="88"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="AD20" s="116"/>
+      <c r="AD20" s="86"/>
       <c r="AE20" s="29"/>
       <c r="AF20" s="29"/>
       <c r="AG20" s="30"/>
@@ -2807,47 +2833,47 @@
     </row>
     <row r="21" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="104" t="s">
+      <c r="B21" s="70"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="104" t="s">
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="129" t="s">
+      <c r="P21" s="51"/>
+      <c r="Q21" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="104" t="s">
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="V21" s="78"/>
-      <c r="W21" s="104" t="s">
+      <c r="V21" s="51"/>
+      <c r="W21" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="X21" s="77"/>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="104" t="s">
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="AB21" s="78"/>
-      <c r="AC21" s="122"/>
-      <c r="AD21" s="123"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="72"/>
       <c r="AE21" s="29"/>
       <c r="AF21" s="29"/>
       <c r="AG21" s="30"/>
@@ -2861,13 +2887,13 @@
       <c r="B22" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="49" t="s">
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="46" t="s">
         <v>41</v>
       </c>
       <c r="J22" s="47"/>
@@ -2875,25 +2901,25 @@
       <c r="L22" s="47"/>
       <c r="M22" s="47"/>
       <c r="N22" s="48"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="49"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="155" t="s">
+        <v>41</v>
+      </c>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="46"/>
       <c r="V22" s="48"/>
-      <c r="W22" s="49" t="s">
+      <c r="W22" s="46" t="s">
         <v>41</v>
       </c>
       <c r="X22" s="47"/>
       <c r="Y22" s="47"/>
       <c r="Z22" s="48"/>
-      <c r="AA22" s="49"/>
+      <c r="AA22" s="46"/>
       <c r="AB22" s="48"/>
-      <c r="AC22" s="96"/>
+      <c r="AC22" s="81"/>
       <c r="AD22" s="48"/>
       <c r="AE22" s="29"/>
       <c r="AF22" s="29"/>
@@ -2908,40 +2934,40 @@
       <c r="B23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="94"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="61"/>
-      <c r="AC23" s="100"/>
-      <c r="AD23" s="95"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="153"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="151" t="s">
+        <v>41</v>
+      </c>
+      <c r="R23" s="152"/>
+      <c r="S23" s="152"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="76"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="76"/>
+      <c r="AB23" s="77"/>
+      <c r="AC23" s="94"/>
+      <c r="AD23" s="56"/>
       <c r="AE23" s="29"/>
       <c r="AF23" s="29"/>
       <c r="AG23" s="30"/>
@@ -2955,13 +2981,13 @@
       <c r="B24" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="49" t="s">
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="46" t="s">
         <v>41</v>
       </c>
       <c r="J24" s="47"/>
@@ -2969,25 +2995,25 @@
       <c r="L24" s="47"/>
       <c r="M24" s="47"/>
       <c r="N24" s="48"/>
-      <c r="O24" s="49"/>
+      <c r="O24" s="46"/>
       <c r="P24" s="48"/>
-      <c r="Q24" s="46" t="s">
+      <c r="Q24" s="78" t="s">
         <v>41</v>
       </c>
       <c r="R24" s="47"/>
       <c r="S24" s="47"/>
       <c r="T24" s="48"/>
-      <c r="U24" s="49"/>
+      <c r="U24" s="46"/>
       <c r="V24" s="48"/>
-      <c r="W24" s="49" t="s">
+      <c r="W24" s="46" t="s">
         <v>41</v>
       </c>
       <c r="X24" s="47"/>
       <c r="Y24" s="47"/>
       <c r="Z24" s="48"/>
-      <c r="AA24" s="49"/>
+      <c r="AA24" s="46"/>
       <c r="AB24" s="48"/>
-      <c r="AC24" s="96"/>
+      <c r="AC24" s="81"/>
       <c r="AD24" s="48"/>
       <c r="AE24" s="29"/>
       <c r="AF24" s="29"/>
@@ -3002,40 +3028,40 @@
       <c r="B25" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="98" t="s">
-        <v>41</v>
-      </c>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="61"/>
-      <c r="W25" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="X25" s="60"/>
-      <c r="Y25" s="60"/>
-      <c r="Z25" s="61"/>
-      <c r="AA25" s="73"/>
-      <c r="AB25" s="61"/>
-      <c r="AC25" s="125"/>
-      <c r="AD25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="77"/>
+      <c r="W25" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="80"/>
+      <c r="Z25" s="77"/>
+      <c r="AA25" s="76"/>
+      <c r="AB25" s="77"/>
+      <c r="AC25" s="90"/>
+      <c r="AD25" s="77"/>
       <c r="AE25" s="29"/>
       <c r="AF25" s="29"/>
       <c r="AG25" s="30"/>
@@ -3049,13 +3075,13 @@
       <c r="B26" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="49" t="s">
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="46" t="s">
         <v>41</v>
       </c>
       <c r="J26" s="47"/>
@@ -3063,25 +3089,25 @@
       <c r="L26" s="47"/>
       <c r="M26" s="47"/>
       <c r="N26" s="48"/>
-      <c r="O26" s="49"/>
+      <c r="O26" s="46"/>
       <c r="P26" s="48"/>
-      <c r="Q26" s="46" t="s">
+      <c r="Q26" s="78" t="s">
         <v>41</v>
       </c>
       <c r="R26" s="47"/>
       <c r="S26" s="47"/>
       <c r="T26" s="48"/>
-      <c r="U26" s="49"/>
+      <c r="U26" s="46"/>
       <c r="V26" s="48"/>
-      <c r="W26" s="49" t="s">
+      <c r="W26" s="46" t="s">
         <v>41</v>
       </c>
       <c r="X26" s="47"/>
       <c r="Y26" s="47"/>
       <c r="Z26" s="48"/>
-      <c r="AA26" s="49"/>
+      <c r="AA26" s="46"/>
       <c r="AB26" s="48"/>
-      <c r="AC26" s="96"/>
+      <c r="AC26" s="81"/>
       <c r="AD26" s="48"/>
       <c r="AE26" s="29"/>
       <c r="AF26" s="29"/>
@@ -3096,40 +3122,40 @@
       <c r="B27" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="61"/>
-      <c r="W27" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="94"/>
-      <c r="Z27" s="95"/>
-      <c r="AA27" s="73"/>
-      <c r="AB27" s="61"/>
-      <c r="AC27" s="100"/>
-      <c r="AD27" s="95"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="76"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="76"/>
+      <c r="AB27" s="77"/>
+      <c r="AC27" s="94"/>
+      <c r="AD27" s="56"/>
       <c r="AE27" s="29"/>
       <c r="AF27" s="29"/>
       <c r="AG27" s="30"/>
@@ -3143,13 +3169,13 @@
       <c r="B28" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="49" t="s">
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="46" t="s">
         <v>41</v>
       </c>
       <c r="J28" s="47"/>
@@ -3157,25 +3183,25 @@
       <c r="L28" s="47"/>
       <c r="M28" s="47"/>
       <c r="N28" s="48"/>
-      <c r="O28" s="49"/>
+      <c r="O28" s="46"/>
       <c r="P28" s="48"/>
-      <c r="Q28" s="46" t="s">
+      <c r="Q28" s="78" t="s">
         <v>41</v>
       </c>
       <c r="R28" s="47"/>
       <c r="S28" s="47"/>
       <c r="T28" s="48"/>
-      <c r="U28" s="49"/>
+      <c r="U28" s="46"/>
       <c r="V28" s="48"/>
-      <c r="W28" s="49" t="s">
+      <c r="W28" s="46" t="s">
         <v>41</v>
       </c>
       <c r="X28" s="47"/>
       <c r="Y28" s="47"/>
       <c r="Z28" s="48"/>
-      <c r="AA28" s="49"/>
+      <c r="AA28" s="46"/>
       <c r="AB28" s="48"/>
-      <c r="AC28" s="96"/>
+      <c r="AC28" s="81"/>
       <c r="AD28" s="48"/>
       <c r="AE28" s="29"/>
       <c r="AF28" s="29"/>
@@ -3190,40 +3216,40 @@
       <c r="B29" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="98" t="s">
-        <v>41</v>
-      </c>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="61"/>
-      <c r="W29" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="61"/>
-      <c r="AA29" s="73"/>
-      <c r="AB29" s="61"/>
-      <c r="AC29" s="125"/>
-      <c r="AD29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="76"/>
+      <c r="V29" s="77"/>
+      <c r="W29" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="80"/>
+      <c r="Z29" s="77"/>
+      <c r="AA29" s="76"/>
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="90"/>
+      <c r="AD29" s="77"/>
       <c r="AE29" s="29"/>
       <c r="AF29" s="29"/>
       <c r="AG29" s="30"/>
@@ -3237,13 +3263,13 @@
       <c r="B30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="49" t="s">
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="46" t="s">
         <v>41</v>
       </c>
       <c r="J30" s="47"/>
@@ -3251,25 +3277,25 @@
       <c r="L30" s="47"/>
       <c r="M30" s="47"/>
       <c r="N30" s="48"/>
-      <c r="O30" s="49"/>
+      <c r="O30" s="46"/>
       <c r="P30" s="48"/>
-      <c r="Q30" s="46" t="s">
+      <c r="Q30" s="78" t="s">
         <v>41</v>
       </c>
       <c r="R30" s="47"/>
       <c r="S30" s="47"/>
       <c r="T30" s="48"/>
-      <c r="U30" s="49"/>
+      <c r="U30" s="46"/>
       <c r="V30" s="48"/>
-      <c r="W30" s="49" t="s">
+      <c r="W30" s="46" t="s">
         <v>41</v>
       </c>
       <c r="X30" s="47"/>
       <c r="Y30" s="47"/>
       <c r="Z30" s="48"/>
-      <c r="AA30" s="49"/>
+      <c r="AA30" s="46"/>
       <c r="AB30" s="48"/>
-      <c r="AC30" s="96"/>
+      <c r="AC30" s="81"/>
       <c r="AD30" s="48"/>
       <c r="AE30" s="29"/>
       <c r="AF30" s="29"/>
@@ -3284,40 +3310,40 @@
       <c r="B31" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="73"/>
-      <c r="V31" s="61"/>
-      <c r="W31" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="73"/>
-      <c r="AB31" s="61"/>
-      <c r="AC31" s="100"/>
-      <c r="AD31" s="95"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="76"/>
+      <c r="V31" s="77"/>
+      <c r="W31" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="76"/>
+      <c r="AB31" s="77"/>
+      <c r="AC31" s="94"/>
+      <c r="AD31" s="56"/>
       <c r="AE31" s="29"/>
       <c r="AF31" s="29"/>
       <c r="AG31" s="30"/>
@@ -3331,13 +3357,13 @@
       <c r="B32" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="49" t="s">
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="46" t="s">
         <v>41</v>
       </c>
       <c r="J32" s="47"/>
@@ -3345,25 +3371,25 @@
       <c r="L32" s="47"/>
       <c r="M32" s="47"/>
       <c r="N32" s="48"/>
-      <c r="O32" s="49"/>
+      <c r="O32" s="46"/>
       <c r="P32" s="48"/>
-      <c r="Q32" s="46" t="s">
+      <c r="Q32" s="78" t="s">
         <v>41</v>
       </c>
       <c r="R32" s="47"/>
       <c r="S32" s="47"/>
       <c r="T32" s="48"/>
-      <c r="U32" s="49"/>
+      <c r="U32" s="46"/>
       <c r="V32" s="48"/>
-      <c r="W32" s="49" t="s">
+      <c r="W32" s="46" t="s">
         <v>41</v>
       </c>
       <c r="X32" s="47"/>
       <c r="Y32" s="47"/>
       <c r="Z32" s="48"/>
-      <c r="AA32" s="49"/>
+      <c r="AA32" s="46"/>
       <c r="AB32" s="48"/>
-      <c r="AC32" s="96"/>
+      <c r="AC32" s="81"/>
       <c r="AD32" s="48"/>
       <c r="AE32" s="29"/>
       <c r="AF32" s="29"/>
@@ -3378,40 +3404,40 @@
       <c r="B33" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="98" t="s">
-        <v>41</v>
-      </c>
-      <c r="R33" s="60"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="61"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="61"/>
-      <c r="W33" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="X33" s="60"/>
-      <c r="Y33" s="60"/>
-      <c r="Z33" s="61"/>
-      <c r="AA33" s="73"/>
-      <c r="AB33" s="61"/>
-      <c r="AC33" s="125"/>
-      <c r="AD33" s="61"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="R33" s="80"/>
+      <c r="S33" s="80"/>
+      <c r="T33" s="77"/>
+      <c r="U33" s="76"/>
+      <c r="V33" s="77"/>
+      <c r="W33" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="X33" s="80"/>
+      <c r="Y33" s="80"/>
+      <c r="Z33" s="77"/>
+      <c r="AA33" s="76"/>
+      <c r="AB33" s="77"/>
+      <c r="AC33" s="90"/>
+      <c r="AD33" s="77"/>
       <c r="AE33" s="29"/>
       <c r="AF33" s="29"/>
       <c r="AG33" s="30"/>
@@ -3425,13 +3451,13 @@
       <c r="B34" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="49" t="s">
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="46" t="s">
         <v>41</v>
       </c>
       <c r="J34" s="47"/>
@@ -3439,25 +3465,25 @@
       <c r="L34" s="47"/>
       <c r="M34" s="47"/>
       <c r="N34" s="48"/>
-      <c r="O34" s="49"/>
+      <c r="O34" s="46"/>
       <c r="P34" s="48"/>
-      <c r="Q34" s="46" t="s">
+      <c r="Q34" s="78" t="s">
         <v>41</v>
       </c>
       <c r="R34" s="47"/>
       <c r="S34" s="47"/>
       <c r="T34" s="48"/>
-      <c r="U34" s="49"/>
+      <c r="U34" s="46"/>
       <c r="V34" s="48"/>
-      <c r="W34" s="49" t="s">
+      <c r="W34" s="46" t="s">
         <v>41</v>
       </c>
       <c r="X34" s="47"/>
       <c r="Y34" s="47"/>
       <c r="Z34" s="48"/>
-      <c r="AA34" s="49"/>
+      <c r="AA34" s="46"/>
       <c r="AB34" s="48"/>
-      <c r="AC34" s="96"/>
+      <c r="AC34" s="81"/>
       <c r="AD34" s="48"/>
       <c r="AE34" s="29"/>
       <c r="AF34" s="29"/>
@@ -3472,40 +3498,40 @@
       <c r="B35" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="R35" s="94"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="95"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="61"/>
-      <c r="W35" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="95"/>
-      <c r="AA35" s="73"/>
-      <c r="AB35" s="61"/>
-      <c r="AC35" s="100"/>
-      <c r="AD35" s="95"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="76"/>
+      <c r="V35" s="77"/>
+      <c r="W35" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="X35" s="55"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="76"/>
+      <c r="AB35" s="77"/>
+      <c r="AC35" s="94"/>
+      <c r="AD35" s="56"/>
       <c r="AE35" s="29"/>
       <c r="AF35" s="29"/>
       <c r="AG35" s="30"/>
@@ -3519,13 +3545,13 @@
       <c r="B36" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="49" t="s">
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="46" t="s">
         <v>41</v>
       </c>
       <c r="J36" s="47"/>
@@ -3533,25 +3559,25 @@
       <c r="L36" s="47"/>
       <c r="M36" s="47"/>
       <c r="N36" s="48"/>
-      <c r="O36" s="49"/>
+      <c r="O36" s="46"/>
       <c r="P36" s="48"/>
-      <c r="Q36" s="46" t="s">
+      <c r="Q36" s="78" t="s">
         <v>41</v>
       </c>
       <c r="R36" s="47"/>
       <c r="S36" s="47"/>
       <c r="T36" s="48"/>
-      <c r="U36" s="49"/>
+      <c r="U36" s="46"/>
       <c r="V36" s="48"/>
-      <c r="W36" s="49" t="s">
+      <c r="W36" s="46" t="s">
         <v>41</v>
       </c>
       <c r="X36" s="47"/>
       <c r="Y36" s="47"/>
       <c r="Z36" s="48"/>
-      <c r="AA36" s="49"/>
+      <c r="AA36" s="46"/>
       <c r="AB36" s="48"/>
-      <c r="AC36" s="96"/>
+      <c r="AC36" s="81"/>
       <c r="AD36" s="48"/>
       <c r="AE36" s="29"/>
       <c r="AF36" s="29"/>
@@ -3566,40 +3592,40 @@
       <c r="B37" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="98" t="s">
-        <v>41</v>
-      </c>
-      <c r="R37" s="60"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="61"/>
-      <c r="U37" s="73"/>
-      <c r="V37" s="61"/>
-      <c r="W37" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="60"/>
-      <c r="Z37" s="61"/>
-      <c r="AA37" s="73"/>
-      <c r="AB37" s="61"/>
-      <c r="AC37" s="125"/>
-      <c r="AD37" s="61"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="R37" s="80"/>
+      <c r="S37" s="80"/>
+      <c r="T37" s="77"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="77"/>
+      <c r="W37" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="X37" s="80"/>
+      <c r="Y37" s="80"/>
+      <c r="Z37" s="77"/>
+      <c r="AA37" s="76"/>
+      <c r="AB37" s="77"/>
+      <c r="AC37" s="90"/>
+      <c r="AD37" s="77"/>
       <c r="AE37" s="29"/>
       <c r="AF37" s="29"/>
       <c r="AG37" s="30"/>
@@ -3613,13 +3639,13 @@
       <c r="B38" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="49" t="s">
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="46" t="s">
         <v>41</v>
       </c>
       <c r="J38" s="47"/>
@@ -3627,25 +3653,25 @@
       <c r="L38" s="47"/>
       <c r="M38" s="47"/>
       <c r="N38" s="48"/>
-      <c r="O38" s="49"/>
+      <c r="O38" s="46"/>
       <c r="P38" s="48"/>
-      <c r="Q38" s="46" t="s">
+      <c r="Q38" s="78" t="s">
         <v>41</v>
       </c>
       <c r="R38" s="47"/>
       <c r="S38" s="47"/>
       <c r="T38" s="48"/>
-      <c r="U38" s="49"/>
+      <c r="U38" s="46"/>
       <c r="V38" s="48"/>
-      <c r="W38" s="49" t="s">
+      <c r="W38" s="46" t="s">
         <v>41</v>
       </c>
       <c r="X38" s="47"/>
       <c r="Y38" s="47"/>
       <c r="Z38" s="48"/>
-      <c r="AA38" s="49"/>
+      <c r="AA38" s="46"/>
       <c r="AB38" s="48"/>
-      <c r="AC38" s="96"/>
+      <c r="AC38" s="81"/>
       <c r="AD38" s="48"/>
       <c r="AE38" s="29"/>
       <c r="AF38" s="29"/>
@@ -3660,40 +3686,40 @@
       <c r="B39" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="94"/>
-      <c r="M39" s="94"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="R39" s="94"/>
-      <c r="S39" s="94"/>
-      <c r="T39" s="95"/>
-      <c r="U39" s="73"/>
-      <c r="V39" s="61"/>
-      <c r="W39" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="X39" s="94"/>
-      <c r="Y39" s="94"/>
-      <c r="Z39" s="95"/>
-      <c r="AA39" s="73"/>
-      <c r="AB39" s="61"/>
-      <c r="AC39" s="100"/>
-      <c r="AD39" s="95"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="R39" s="55"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="76"/>
+      <c r="V39" s="77"/>
+      <c r="W39" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="X39" s="55"/>
+      <c r="Y39" s="55"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="76"/>
+      <c r="AB39" s="77"/>
+      <c r="AC39" s="94"/>
+      <c r="AD39" s="56"/>
       <c r="AE39" s="29"/>
       <c r="AF39" s="29"/>
       <c r="AG39" s="30"/>
@@ -3707,13 +3733,13 @@
       <c r="B40" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="49" t="s">
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="46" t="s">
         <v>41</v>
       </c>
       <c r="J40" s="47"/>
@@ -3721,25 +3747,25 @@
       <c r="L40" s="47"/>
       <c r="M40" s="47"/>
       <c r="N40" s="48"/>
-      <c r="O40" s="49"/>
+      <c r="O40" s="46"/>
       <c r="P40" s="48"/>
-      <c r="Q40" s="46" t="s">
+      <c r="Q40" s="78" t="s">
         <v>41</v>
       </c>
       <c r="R40" s="47"/>
       <c r="S40" s="47"/>
       <c r="T40" s="48"/>
-      <c r="U40" s="49"/>
+      <c r="U40" s="46"/>
       <c r="V40" s="48"/>
-      <c r="W40" s="49" t="s">
+      <c r="W40" s="46" t="s">
         <v>41</v>
       </c>
       <c r="X40" s="47"/>
       <c r="Y40" s="47"/>
       <c r="Z40" s="48"/>
-      <c r="AA40" s="49"/>
+      <c r="AA40" s="46"/>
       <c r="AB40" s="48"/>
-      <c r="AC40" s="96"/>
+      <c r="AC40" s="81"/>
       <c r="AD40" s="48"/>
       <c r="AE40" s="29"/>
       <c r="AF40" s="29"/>
@@ -3754,40 +3780,40 @@
       <c r="B41" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="60"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="61"/>
-      <c r="Q41" s="98" t="s">
-        <v>41</v>
-      </c>
-      <c r="R41" s="60"/>
-      <c r="S41" s="60"/>
-      <c r="T41" s="61"/>
-      <c r="U41" s="73"/>
-      <c r="V41" s="61"/>
-      <c r="W41" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="X41" s="60"/>
-      <c r="Y41" s="60"/>
-      <c r="Z41" s="61"/>
-      <c r="AA41" s="73"/>
-      <c r="AB41" s="61"/>
-      <c r="AC41" s="125"/>
-      <c r="AD41" s="61"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="77"/>
+      <c r="Q41" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="R41" s="80"/>
+      <c r="S41" s="80"/>
+      <c r="T41" s="77"/>
+      <c r="U41" s="76"/>
+      <c r="V41" s="77"/>
+      <c r="W41" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="X41" s="80"/>
+      <c r="Y41" s="80"/>
+      <c r="Z41" s="77"/>
+      <c r="AA41" s="76"/>
+      <c r="AB41" s="77"/>
+      <c r="AC41" s="90"/>
+      <c r="AD41" s="77"/>
       <c r="AE41" s="29"/>
       <c r="AF41" s="29"/>
       <c r="AG41" s="30"/>
@@ -3801,13 +3827,13 @@
       <c r="B42" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="49" t="s">
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="46" t="s">
         <v>41</v>
       </c>
       <c r="J42" s="47"/>
@@ -3815,25 +3841,25 @@
       <c r="L42" s="47"/>
       <c r="M42" s="47"/>
       <c r="N42" s="48"/>
-      <c r="O42" s="49"/>
+      <c r="O42" s="46"/>
       <c r="P42" s="48"/>
-      <c r="Q42" s="46" t="s">
+      <c r="Q42" s="78" t="s">
         <v>41</v>
       </c>
       <c r="R42" s="47"/>
       <c r="S42" s="47"/>
       <c r="T42" s="48"/>
-      <c r="U42" s="49"/>
+      <c r="U42" s="46"/>
       <c r="V42" s="48"/>
-      <c r="W42" s="49" t="s">
+      <c r="W42" s="46" t="s">
         <v>41</v>
       </c>
       <c r="X42" s="47"/>
       <c r="Y42" s="47"/>
       <c r="Z42" s="48"/>
-      <c r="AA42" s="49"/>
+      <c r="AA42" s="46"/>
       <c r="AB42" s="48"/>
-      <c r="AC42" s="96"/>
+      <c r="AC42" s="81"/>
       <c r="AD42" s="48"/>
       <c r="AE42" s="29"/>
       <c r="AF42" s="29"/>
@@ -3848,40 +3874,40 @@
       <c r="B43" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="J43" s="94"/>
-      <c r="K43" s="94"/>
-      <c r="L43" s="94"/>
-      <c r="M43" s="94"/>
-      <c r="N43" s="95"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="61"/>
-      <c r="Q43" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="R43" s="94"/>
-      <c r="S43" s="94"/>
-      <c r="T43" s="95"/>
-      <c r="U43" s="73"/>
-      <c r="V43" s="61"/>
-      <c r="W43" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="X43" s="94"/>
-      <c r="Y43" s="94"/>
-      <c r="Z43" s="95"/>
-      <c r="AA43" s="73"/>
-      <c r="AB43" s="61"/>
-      <c r="AC43" s="100"/>
-      <c r="AD43" s="95"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="76"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="R43" s="55"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="56"/>
+      <c r="U43" s="76"/>
+      <c r="V43" s="77"/>
+      <c r="W43" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="X43" s="55"/>
+      <c r="Y43" s="55"/>
+      <c r="Z43" s="56"/>
+      <c r="AA43" s="76"/>
+      <c r="AB43" s="77"/>
+      <c r="AC43" s="94"/>
+      <c r="AD43" s="56"/>
       <c r="AE43" s="29"/>
       <c r="AF43" s="29"/>
       <c r="AG43" s="30"/>
@@ -3895,13 +3921,13 @@
       <c r="B44" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="49" t="s">
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="46" t="s">
         <v>41</v>
       </c>
       <c r="J44" s="47"/>
@@ -3909,25 +3935,25 @@
       <c r="L44" s="47"/>
       <c r="M44" s="47"/>
       <c r="N44" s="48"/>
-      <c r="O44" s="49"/>
+      <c r="O44" s="46"/>
       <c r="P44" s="48"/>
-      <c r="Q44" s="46" t="s">
+      <c r="Q44" s="78" t="s">
         <v>41</v>
       </c>
       <c r="R44" s="47"/>
       <c r="S44" s="47"/>
       <c r="T44" s="48"/>
-      <c r="U44" s="49"/>
+      <c r="U44" s="46"/>
       <c r="V44" s="48"/>
-      <c r="W44" s="49" t="s">
+      <c r="W44" s="46" t="s">
         <v>41</v>
       </c>
       <c r="X44" s="47"/>
       <c r="Y44" s="47"/>
       <c r="Z44" s="48"/>
-      <c r="AA44" s="49"/>
+      <c r="AA44" s="46"/>
       <c r="AB44" s="48"/>
-      <c r="AC44" s="96"/>
+      <c r="AC44" s="81"/>
       <c r="AD44" s="48"/>
       <c r="AE44" s="29"/>
       <c r="AF44" s="29"/>
@@ -3942,40 +3968,40 @@
       <c r="B45" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
-      <c r="N45" s="61"/>
-      <c r="O45" s="73"/>
-      <c r="P45" s="61"/>
-      <c r="Q45" s="98" t="s">
-        <v>41</v>
-      </c>
-      <c r="R45" s="60"/>
-      <c r="S45" s="60"/>
-      <c r="T45" s="61"/>
-      <c r="U45" s="73"/>
-      <c r="V45" s="61"/>
-      <c r="W45" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="X45" s="60"/>
-      <c r="Y45" s="60"/>
-      <c r="Z45" s="61"/>
-      <c r="AA45" s="73"/>
-      <c r="AB45" s="61"/>
-      <c r="AC45" s="125"/>
-      <c r="AD45" s="61"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="76"/>
+      <c r="P45" s="77"/>
+      <c r="Q45" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="R45" s="80"/>
+      <c r="S45" s="80"/>
+      <c r="T45" s="77"/>
+      <c r="U45" s="76"/>
+      <c r="V45" s="77"/>
+      <c r="W45" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="X45" s="80"/>
+      <c r="Y45" s="80"/>
+      <c r="Z45" s="77"/>
+      <c r="AA45" s="76"/>
+      <c r="AB45" s="77"/>
+      <c r="AC45" s="90"/>
+      <c r="AD45" s="77"/>
       <c r="AE45" s="29"/>
       <c r="AF45" s="29"/>
       <c r="AG45" s="30"/>
@@ -3989,13 +4015,13 @@
       <c r="B46" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="143"/>
-      <c r="D46" s="143"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="143"/>
-      <c r="G46" s="143"/>
-      <c r="H46" s="144"/>
-      <c r="I46" s="49" t="s">
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="46" t="s">
         <v>41</v>
       </c>
       <c r="J46" s="47"/>
@@ -4003,25 +4029,25 @@
       <c r="L46" s="47"/>
       <c r="M46" s="47"/>
       <c r="N46" s="48"/>
-      <c r="O46" s="49"/>
+      <c r="O46" s="46"/>
       <c r="P46" s="48"/>
-      <c r="Q46" s="46" t="s">
+      <c r="Q46" s="78" t="s">
         <v>41</v>
       </c>
       <c r="R46" s="47"/>
       <c r="S46" s="47"/>
       <c r="T46" s="48"/>
-      <c r="U46" s="49"/>
+      <c r="U46" s="46"/>
       <c r="V46" s="48"/>
-      <c r="W46" s="49" t="s">
+      <c r="W46" s="46" t="s">
         <v>41</v>
       </c>
       <c r="X46" s="47"/>
       <c r="Y46" s="47"/>
       <c r="Z46" s="48"/>
-      <c r="AA46" s="49"/>
+      <c r="AA46" s="46"/>
       <c r="AB46" s="48"/>
-      <c r="AC46" s="96"/>
+      <c r="AC46" s="81"/>
       <c r="AD46" s="48"/>
       <c r="AE46" s="29"/>
       <c r="AF46" s="29"/>
@@ -4046,37 +4072,37 @@
     </row>
     <row r="48" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="34"/>
-      <c r="B48" s="127" t="s">
+      <c r="B48" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="128"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="128"/>
-      <c r="F48" s="128"/>
-      <c r="G48" s="128"/>
-      <c r="H48" s="128"/>
-      <c r="I48" s="128"/>
-      <c r="J48" s="128"/>
-      <c r="K48" s="128"/>
-      <c r="L48" s="128"/>
-      <c r="M48" s="128"/>
-      <c r="N48" s="128"/>
-      <c r="O48" s="128"/>
-      <c r="P48" s="128"/>
-      <c r="Q48" s="128"/>
-      <c r="R48" s="128"/>
-      <c r="S48" s="128"/>
-      <c r="T48" s="128"/>
-      <c r="U48" s="128"/>
-      <c r="V48" s="128"/>
-      <c r="W48" s="128"/>
-      <c r="X48" s="128"/>
-      <c r="Y48" s="128"/>
-      <c r="Z48" s="128"/>
-      <c r="AA48" s="128"/>
-      <c r="AB48" s="128"/>
-      <c r="AC48" s="128"/>
-      <c r="AD48" s="129"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="117"/>
+      <c r="J48" s="117"/>
+      <c r="K48" s="117"/>
+      <c r="L48" s="117"/>
+      <c r="M48" s="117"/>
+      <c r="N48" s="117"/>
+      <c r="O48" s="117"/>
+      <c r="P48" s="117"/>
+      <c r="Q48" s="117"/>
+      <c r="R48" s="117"/>
+      <c r="S48" s="117"/>
+      <c r="T48" s="117"/>
+      <c r="U48" s="117"/>
+      <c r="V48" s="117"/>
+      <c r="W48" s="117"/>
+      <c r="X48" s="117"/>
+      <c r="Y48" s="117"/>
+      <c r="Z48" s="117"/>
+      <c r="AA48" s="117"/>
+      <c r="AB48" s="117"/>
+      <c r="AC48" s="117"/>
+      <c r="AD48" s="53"/>
       <c r="AE48" s="29"/>
       <c r="AF48" s="29"/>
       <c r="AG48" s="30"/>
@@ -4087,35 +4113,35 @@
     </row>
     <row r="49" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="34"/>
-      <c r="B49" s="81"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
-      <c r="Q49" s="82"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="82"/>
-      <c r="T49" s="82"/>
-      <c r="U49" s="82"/>
-      <c r="V49" s="82"/>
-      <c r="W49" s="82"/>
-      <c r="X49" s="82"/>
-      <c r="Y49" s="82"/>
-      <c r="Z49" s="82"/>
-      <c r="AA49" s="82"/>
-      <c r="AB49" s="82"/>
-      <c r="AC49" s="82"/>
-      <c r="AD49" s="83"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="114"/>
+      <c r="L49" s="114"/>
+      <c r="M49" s="114"/>
+      <c r="N49" s="114"/>
+      <c r="O49" s="114"/>
+      <c r="P49" s="114"/>
+      <c r="Q49" s="114"/>
+      <c r="R49" s="114"/>
+      <c r="S49" s="114"/>
+      <c r="T49" s="114"/>
+      <c r="U49" s="114"/>
+      <c r="V49" s="114"/>
+      <c r="W49" s="114"/>
+      <c r="X49" s="114"/>
+      <c r="Y49" s="114"/>
+      <c r="Z49" s="114"/>
+      <c r="AA49" s="114"/>
+      <c r="AB49" s="114"/>
+      <c r="AC49" s="114"/>
+      <c r="AD49" s="115"/>
       <c r="AE49" s="29"/>
       <c r="AF49" s="29"/>
       <c r="AG49" s="30"/>
@@ -4126,35 +4152,35 @@
     </row>
     <row r="50" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34"/>
-      <c r="B50" s="81"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="82"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="82"/>
-      <c r="T50" s="82"/>
-      <c r="U50" s="82"/>
-      <c r="V50" s="82"/>
-      <c r="W50" s="82"/>
-      <c r="X50" s="82"/>
-      <c r="Y50" s="82"/>
-      <c r="Z50" s="82"/>
-      <c r="AA50" s="82"/>
-      <c r="AB50" s="82"/>
-      <c r="AC50" s="82"/>
-      <c r="AD50" s="83"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="114"/>
+      <c r="L50" s="114"/>
+      <c r="M50" s="114"/>
+      <c r="N50" s="114"/>
+      <c r="O50" s="114"/>
+      <c r="P50" s="114"/>
+      <c r="Q50" s="114"/>
+      <c r="R50" s="114"/>
+      <c r="S50" s="114"/>
+      <c r="T50" s="114"/>
+      <c r="U50" s="114"/>
+      <c r="V50" s="114"/>
+      <c r="W50" s="114"/>
+      <c r="X50" s="114"/>
+      <c r="Y50" s="114"/>
+      <c r="Z50" s="114"/>
+      <c r="AA50" s="114"/>
+      <c r="AB50" s="114"/>
+      <c r="AC50" s="114"/>
+      <c r="AD50" s="115"/>
       <c r="AE50" s="29"/>
       <c r="AF50" s="29"/>
       <c r="AG50" s="30"/>
@@ -4165,35 +4191,35 @@
     </row>
     <row r="51" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="34"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="O51" s="82"/>
-      <c r="P51" s="82"/>
-      <c r="Q51" s="82"/>
-      <c r="R51" s="82"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="82"/>
-      <c r="U51" s="82"/>
-      <c r="V51" s="82"/>
-      <c r="W51" s="82"/>
-      <c r="X51" s="82"/>
-      <c r="Y51" s="82"/>
-      <c r="Z51" s="82"/>
-      <c r="AA51" s="82"/>
-      <c r="AB51" s="82"/>
-      <c r="AC51" s="82"/>
-      <c r="AD51" s="83"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="114"/>
+      <c r="K51" s="114"/>
+      <c r="L51" s="114"/>
+      <c r="M51" s="114"/>
+      <c r="N51" s="114"/>
+      <c r="O51" s="114"/>
+      <c r="P51" s="114"/>
+      <c r="Q51" s="114"/>
+      <c r="R51" s="114"/>
+      <c r="S51" s="114"/>
+      <c r="T51" s="114"/>
+      <c r="U51" s="114"/>
+      <c r="V51" s="114"/>
+      <c r="W51" s="114"/>
+      <c r="X51" s="114"/>
+      <c r="Y51" s="114"/>
+      <c r="Z51" s="114"/>
+      <c r="AA51" s="114"/>
+      <c r="AB51" s="114"/>
+      <c r="AC51" s="114"/>
+      <c r="AD51" s="115"/>
       <c r="AE51" s="29"/>
       <c r="AF51" s="29"/>
       <c r="AG51" s="30"/>
@@ -4204,35 +4230,35 @@
     </row>
     <row r="52" spans="1:37" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="34"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="82"/>
-      <c r="O52" s="82"/>
-      <c r="P52" s="82"/>
-      <c r="Q52" s="82"/>
-      <c r="R52" s="82"/>
-      <c r="S52" s="82"/>
-      <c r="T52" s="82"/>
-      <c r="U52" s="82"/>
-      <c r="V52" s="82"/>
-      <c r="W52" s="82"/>
-      <c r="X52" s="82"/>
-      <c r="Y52" s="82"/>
-      <c r="Z52" s="82"/>
-      <c r="AA52" s="82"/>
-      <c r="AB52" s="82"/>
-      <c r="AC52" s="82"/>
-      <c r="AD52" s="83"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="114"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="114"/>
+      <c r="L52" s="114"/>
+      <c r="M52" s="114"/>
+      <c r="N52" s="114"/>
+      <c r="O52" s="114"/>
+      <c r="P52" s="114"/>
+      <c r="Q52" s="114"/>
+      <c r="R52" s="114"/>
+      <c r="S52" s="114"/>
+      <c r="T52" s="114"/>
+      <c r="U52" s="114"/>
+      <c r="V52" s="114"/>
+      <c r="W52" s="114"/>
+      <c r="X52" s="114"/>
+      <c r="Y52" s="114"/>
+      <c r="Z52" s="114"/>
+      <c r="AA52" s="114"/>
+      <c r="AB52" s="114"/>
+      <c r="AC52" s="114"/>
+      <c r="AD52" s="115"/>
       <c r="AE52" s="29"/>
       <c r="AF52" s="29"/>
       <c r="AG52" s="30"/>
@@ -4243,41 +4269,41 @@
     </row>
     <row r="53" spans="1:37" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="34"/>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="53" t="s">
+      <c r="C53" s="142"/>
+      <c r="D53" s="142"/>
+      <c r="E53" s="142"/>
+      <c r="F53" s="142"/>
+      <c r="G53" s="142"/>
+      <c r="H53" s="143"/>
+      <c r="I53" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="55"/>
-      <c r="T53" s="79" t="s">
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="61"/>
+      <c r="T53" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="U53" s="54"/>
-      <c r="V53" s="54"/>
-      <c r="W53" s="54"/>
-      <c r="X53" s="54"/>
-      <c r="Y53" s="54"/>
-      <c r="Z53" s="54"/>
-      <c r="AA53" s="54"/>
-      <c r="AB53" s="54"/>
-      <c r="AC53" s="54"/>
-      <c r="AD53" s="55"/>
+      <c r="U53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="60"/>
+      <c r="Y53" s="60"/>
+      <c r="Z53" s="60"/>
+      <c r="AA53" s="60"/>
+      <c r="AB53" s="60"/>
+      <c r="AC53" s="60"/>
+      <c r="AD53" s="61"/>
       <c r="AE53" s="29"/>
       <c r="AF53" s="29"/>
       <c r="AG53" s="30"/>
@@ -4288,35 +4314,35 @@
     </row>
     <row r="54" spans="1:37" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="34"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="66"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="57"/>
-      <c r="R54" s="57"/>
-      <c r="S54" s="58"/>
-      <c r="T54" s="57"/>
-      <c r="U54" s="57"/>
-      <c r="V54" s="57"/>
-      <c r="W54" s="57"/>
-      <c r="X54" s="57"/>
-      <c r="Y54" s="57"/>
-      <c r="Z54" s="57"/>
-      <c r="AA54" s="57"/>
-      <c r="AB54" s="57"/>
-      <c r="AC54" s="57"/>
-      <c r="AD54" s="58"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="145"/>
+      <c r="H54" s="146"/>
+      <c r="I54" s="83"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="67"/>
+      <c r="P54" s="67"/>
+      <c r="Q54" s="67"/>
+      <c r="R54" s="67"/>
+      <c r="S54" s="68"/>
+      <c r="T54" s="67"/>
+      <c r="U54" s="67"/>
+      <c r="V54" s="67"/>
+      <c r="W54" s="67"/>
+      <c r="X54" s="67"/>
+      <c r="Y54" s="67"/>
+      <c r="Z54" s="67"/>
+      <c r="AA54" s="67"/>
+      <c r="AB54" s="67"/>
+      <c r="AC54" s="67"/>
+      <c r="AD54" s="68"/>
       <c r="AE54" s="29"/>
       <c r="AF54" s="29"/>
       <c r="AG54" s="30"/>
@@ -4345,19 +4371,19 @@
       <c r="Q55" s="44"/>
       <c r="R55" s="44"/>
       <c r="S55" s="18"/>
-      <c r="T55" s="131" t="s">
+      <c r="T55" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="U55" s="57"/>
-      <c r="V55" s="57"/>
-      <c r="W55" s="57"/>
-      <c r="X55" s="57"/>
-      <c r="Y55" s="57"/>
-      <c r="Z55" s="57"/>
-      <c r="AA55" s="57"/>
-      <c r="AB55" s="57"/>
-      <c r="AC55" s="57"/>
-      <c r="AD55" s="58"/>
+      <c r="U55" s="67"/>
+      <c r="V55" s="67"/>
+      <c r="W55" s="67"/>
+      <c r="X55" s="67"/>
+      <c r="Y55" s="67"/>
+      <c r="Z55" s="67"/>
+      <c r="AA55" s="67"/>
+      <c r="AB55" s="67"/>
+      <c r="AC55" s="67"/>
+      <c r="AD55" s="68"/>
       <c r="AE55" s="29"/>
       <c r="AF55" s="29"/>
       <c r="AG55" s="30"/>
@@ -4368,41 +4394,41 @@
     </row>
     <row r="56" spans="1:37" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="34"/>
-      <c r="B56" s="105" t="s">
+      <c r="B56" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="106"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="107"/>
-      <c r="I56" s="121" t="s">
+      <c r="C56" s="132"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="132"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="J56" s="122"/>
-      <c r="K56" s="122"/>
-      <c r="L56" s="122"/>
-      <c r="M56" s="122"/>
-      <c r="N56" s="122"/>
-      <c r="O56" s="122"/>
-      <c r="P56" s="122"/>
-      <c r="Q56" s="122"/>
-      <c r="R56" s="122"/>
-      <c r="S56" s="123"/>
-      <c r="T56" s="130" t="s">
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="71"/>
+      <c r="O56" s="71"/>
+      <c r="P56" s="71"/>
+      <c r="Q56" s="71"/>
+      <c r="R56" s="71"/>
+      <c r="S56" s="72"/>
+      <c r="T56" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="U56" s="122"/>
-      <c r="V56" s="122"/>
-      <c r="W56" s="122"/>
-      <c r="X56" s="122"/>
-      <c r="Y56" s="122"/>
-      <c r="Z56" s="122"/>
-      <c r="AA56" s="122"/>
-      <c r="AB56" s="122"/>
-      <c r="AC56" s="122"/>
-      <c r="AD56" s="123"/>
+      <c r="U56" s="71"/>
+      <c r="V56" s="71"/>
+      <c r="W56" s="71"/>
+      <c r="X56" s="71"/>
+      <c r="Y56" s="71"/>
+      <c r="Z56" s="71"/>
+      <c r="AA56" s="71"/>
+      <c r="AB56" s="71"/>
+      <c r="AC56" s="71"/>
+      <c r="AD56" s="72"/>
       <c r="AE56" s="29"/>
       <c r="AF56" s="29"/>
       <c r="AG56" s="30"/>
@@ -4413,37 +4439,37 @@
     </row>
     <row r="57" spans="1:37" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="34"/>
-      <c r="B57" s="101" t="s">
+      <c r="B57" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="102"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
-      <c r="F57" s="102"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="102"/>
-      <c r="I57" s="102"/>
-      <c r="J57" s="102"/>
-      <c r="K57" s="102"/>
-      <c r="L57" s="102"/>
-      <c r="M57" s="102"/>
-      <c r="N57" s="102"/>
-      <c r="O57" s="102"/>
-      <c r="P57" s="102"/>
-      <c r="Q57" s="102"/>
-      <c r="R57" s="102"/>
-      <c r="S57" s="102"/>
-      <c r="T57" s="102"/>
-      <c r="U57" s="102"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
-      <c r="X57" s="102"/>
-      <c r="Y57" s="102"/>
-      <c r="Z57" s="102"/>
-      <c r="AA57" s="102"/>
-      <c r="AB57" s="102"/>
-      <c r="AC57" s="102"/>
-      <c r="AD57" s="103"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="129"/>
+      <c r="E57" s="129"/>
+      <c r="F57" s="129"/>
+      <c r="G57" s="129"/>
+      <c r="H57" s="129"/>
+      <c r="I57" s="129"/>
+      <c r="J57" s="129"/>
+      <c r="K57" s="129"/>
+      <c r="L57" s="129"/>
+      <c r="M57" s="129"/>
+      <c r="N57" s="129"/>
+      <c r="O57" s="129"/>
+      <c r="P57" s="129"/>
+      <c r="Q57" s="129"/>
+      <c r="R57" s="129"/>
+      <c r="S57" s="129"/>
+      <c r="T57" s="129"/>
+      <c r="U57" s="129"/>
+      <c r="V57" s="129"/>
+      <c r="W57" s="129"/>
+      <c r="X57" s="129"/>
+      <c r="Y57" s="129"/>
+      <c r="Z57" s="129"/>
+      <c r="AA57" s="129"/>
+      <c r="AB57" s="129"/>
+      <c r="AC57" s="129"/>
+      <c r="AD57" s="130"/>
       <c r="AE57" s="29"/>
       <c r="AF57" s="29"/>
       <c r="AG57" s="30"/>
@@ -4688,6 +4714,252 @@
     </row>
   </sheetData>
   <mergeCells count="270">
+    <mergeCell ref="W46:Z46"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="I53:S54"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="B53:H54"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="T53:AD54"/>
+    <mergeCell ref="W41:Z41"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B49:AD49"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="B57:AD57"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W45:Z45"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="Q45:T45"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B13:AD13"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="D8:V8"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="B16:AD16"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="B14:AD14"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="I56:S56"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="B15:AD15"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="W43:Z43"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="B18:AD18"/>
+    <mergeCell ref="B52:AD52"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="AA45:AB45"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="W39:Z39"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="W44:Z44"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="Q44:T44"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="W37:Z37"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="B19:AD19"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="L10:N12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="B51:AD51"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="W42:Z42"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="B50:AD50"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="B48:AD48"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="T56:AD56"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="I20:AB20"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="T55:AD55"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="Q46:T46"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="B2:G5"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="B20:H21"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="H4:V4"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="B10:C12"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="W40:Z40"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AA46:AB46"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AC46:AD46"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="W2:AD3"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="AC20:AD21"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="W36:Z36"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AB12:AD12"/>
     <mergeCell ref="W38:Z38"/>
     <mergeCell ref="I21:N21"/>
     <mergeCell ref="AA40:AB40"/>
@@ -4712,252 +4984,6 @@
     <mergeCell ref="Q24:T24"/>
     <mergeCell ref="Q33:T33"/>
     <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="W2:AD3"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="AC20:AD21"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="W36:Z36"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="W40:Z40"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="AC43:AD43"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="B2:G5"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="B20:H21"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="H4:V4"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="B10:C12"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="T56:AD56"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="I20:AB20"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="T55:AD55"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="Q46:T46"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="B51:AD51"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="W42:Z42"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="B50:AD50"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="B48:AD48"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="AA46:AB46"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AC46:AD46"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="W37:Z37"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="I44:N44"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="W39:Z39"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="W44:Z44"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="B19:AD19"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="L10:N12"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="I56:S56"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="B15:AD15"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="W43:Z43"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="B18:AD18"/>
-    <mergeCell ref="B52:AD52"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="AA45:AB45"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="B13:AD13"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="D8:V8"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="B16:AD16"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="B14:AD14"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="B57:AD57"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W45:Z45"/>
-    <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="Q45:T45"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="Q44:T44"/>
-    <mergeCell ref="W46:Z46"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="I53:S54"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="I45:N45"/>
-    <mergeCell ref="B53:H54"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="W32:Z32"/>
-    <mergeCell ref="T53:AD54"/>
-    <mergeCell ref="W41:Z41"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B49:AD49"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C34:H34"/>
   </mergeCells>
   <conditionalFormatting sqref="C23 C25 C27 C29 C31 C33 C35 C37 C39 C41 C43 C45">
     <cfRule type="expression" dxfId="2" priority="3">
